--- a/Parameters--do not translate list--2023_ambiguous .xlsx
+++ b/Parameters--do not translate list--2023_ambiguous .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboros\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EB05B7-BF5C-4ECE-B0A4-687486EB78FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B4B6A-4532-428A-99F5-D91BA78F5B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{D5A22007-63F0-4073-B14E-DAC0B9B386F1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="2870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="2871">
   <si>
     <t xml:space="preserve">A </t>
   </si>
@@ -26824,6 +26824,9 @@
   </si>
   <si>
     <t>can be used for abbreviating millions.</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -27290,23 +27293,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD05EA-F48C-4F54-9A38-533BF9BABA08}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E985"/>
+  <dimension ref="A1:F985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1936</v>
       </c>
@@ -27323,7 +27326,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -27337,7 +27340,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -27348,7 +27351,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -27365,7 +27368,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -27382,7 +27385,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -27393,7 +27396,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -27404,7 +27407,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -27415,7 +27418,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -27426,7 +27429,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -27437,7 +27440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -27448,7 +27451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -27459,7 +27462,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -27475,8 +27478,11 @@
       <c r="E13" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -27487,7 +27493,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -27504,7 +27510,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -27515,7 +27521,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -27526,7 +27532,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -27537,7 +27543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -27548,7 +27554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -27559,7 +27565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -27570,7 +27576,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1526</v>
       </c>
@@ -27581,7 +27587,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1527</v>
       </c>
@@ -27592,7 +27598,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -27603,7 +27609,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -27614,7 +27620,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1528</v>
       </c>
@@ -27625,7 +27631,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -27636,7 +27642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -27647,7 +27653,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -27658,7 +27664,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -27669,7 +27675,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -27680,7 +27686,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -27691,7 +27697,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -27702,7 +27708,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -27713,7 +27719,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -27724,7 +27730,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -27735,7 +27741,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -27746,7 +27752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -27763,7 +27769,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -27774,7 +27780,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -27785,7 +27791,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -27796,7 +27802,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -27807,7 +27813,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -27818,7 +27824,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -27829,7 +27835,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -27840,7 +27846,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -27851,7 +27857,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -27862,7 +27868,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -27873,7 +27879,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1530</v>
       </c>
@@ -27890,7 +27896,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -27901,7 +27907,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -27912,7 +27918,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -27923,7 +27929,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -27934,7 +27940,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -27945,7 +27951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1532</v>
       </c>
@@ -27956,7 +27962,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1533</v>
       </c>
@@ -27967,7 +27973,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -27978,7 +27984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1535</v>
       </c>
@@ -27989,7 +27995,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1536</v>
       </c>
@@ -28000,7 +28006,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1537</v>
       </c>
@@ -28011,7 +28017,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>99</v>
       </c>
@@ -28022,7 +28028,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>101</v>
       </c>
@@ -28033,7 +28039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>103</v>
       </c>
@@ -28045,7 +28051,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:5" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1539</v>
       </c>
@@ -28056,7 +28062,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>1540</v>
       </c>
@@ -28067,7 +28073,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1541</v>
       </c>
@@ -28078,7 +28084,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1542</v>
       </c>
@@ -28089,7 +28095,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1543</v>
       </c>
@@ -28100,7 +28106,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1544</v>
       </c>
@@ -28111,7 +28117,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>1545</v>
       </c>
@@ -28122,7 +28128,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>1546</v>
       </c>
@@ -28133,7 +28139,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>1547</v>
       </c>
@@ -28144,7 +28150,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>1548</v>
       </c>
@@ -28155,7 +28161,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>1549</v>
       </c>
@@ -28166,7 +28172,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>1550</v>
       </c>
@@ -28177,7 +28183,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>1551</v>
       </c>
@@ -28188,7 +28194,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>1552</v>
       </c>
@@ -28199,7 +28205,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>1553</v>
       </c>
@@ -28210,7 +28216,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>1554</v>
       </c>
@@ -28221,7 +28227,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>1555</v>
       </c>
@@ -28232,7 +28238,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>122</v>
       </c>
@@ -28243,7 +28249,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>128</v>
       </c>
@@ -28254,7 +28260,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>125</v>
       </c>
@@ -28265,7 +28271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>1556</v>
       </c>
@@ -28276,7 +28282,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1557</v>
       </c>
@@ -28287,7 +28293,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -28298,7 +28304,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>141</v>
       </c>
@@ -28309,7 +28315,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>142</v>
       </c>
@@ -28320,7 +28326,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>143</v>
       </c>
@@ -28331,7 +28337,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>144</v>
       </c>
@@ -28342,7 +28348,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -28353,7 +28359,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -28364,7 +28370,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -28375,7 +28381,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -28386,7 +28392,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -28397,7 +28403,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>150</v>
       </c>
@@ -28408,7 +28414,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -28419,7 +28425,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>154</v>
       </c>
@@ -28430,7 +28436,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -28441,7 +28447,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>158</v>
       </c>
@@ -28452,7 +28458,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -28463,7 +28469,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -28474,7 +28480,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -28485,7 +28491,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>166</v>
       </c>
@@ -28496,7 +28502,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>168</v>
       </c>
@@ -28507,7 +28513,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>170</v>
       </c>
@@ -28518,7 +28524,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>172</v>
       </c>
@@ -28535,7 +28541,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>174</v>
       </c>
@@ -28546,7 +28552,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -28557,7 +28563,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>178</v>
       </c>
@@ -28568,7 +28574,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>180</v>
       </c>
@@ -28579,7 +28585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>201</v>
       </c>
@@ -28590,7 +28596,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>202</v>
       </c>
@@ -28601,7 +28607,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -28612,7 +28618,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1560</v>
       </c>
@@ -28623,7 +28629,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1562</v>
       </c>
@@ -28634,7 +28640,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1563</v>
       </c>
@@ -28645,7 +28651,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -28656,7 +28662,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>200</v>
       </c>
@@ -28667,7 +28673,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -28678,7 +28684,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1566</v>
       </c>
@@ -28689,7 +28695,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>199</v>
       </c>
@@ -28700,7 +28706,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1568</v>
       </c>
@@ -28711,7 +28717,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>198</v>
       </c>
@@ -28722,7 +28728,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>197</v>
       </c>
@@ -28733,7 +28739,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>196</v>
       </c>
@@ -28744,7 +28750,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>195</v>
       </c>
@@ -28755,7 +28761,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>194</v>
       </c>
@@ -28766,7 +28772,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>204</v>
       </c>
@@ -28777,7 +28783,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>206</v>
       </c>
@@ -28788,7 +28794,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>208</v>
       </c>
@@ -28805,7 +28811,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>210</v>
       </c>
@@ -28816,7 +28822,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>239</v>
       </c>
@@ -28833,7 +28839,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1570</v>
       </c>
@@ -28850,7 +28856,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -28861,7 +28867,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -28872,7 +28878,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>236</v>
       </c>
@@ -28883,7 +28889,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>235</v>
       </c>
@@ -28894,7 +28900,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>234</v>
       </c>
@@ -28911,7 +28917,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>233</v>
       </c>
@@ -28928,7 +28934,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>232</v>
       </c>
@@ -28939,7 +28945,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>231</v>
       </c>
@@ -28950,7 +28956,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>221</v>
       </c>
@@ -28964,7 +28970,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>230</v>
       </c>
@@ -28975,7 +28981,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>229</v>
       </c>
@@ -28986,7 +28992,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>228</v>
       </c>
@@ -28997,7 +29003,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>227</v>
       </c>
@@ -29008,7 +29014,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -29019,7 +29025,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1571</v>
       </c>
@@ -29030,7 +29036,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>267</v>
       </c>
@@ -29041,7 +29047,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -29052,7 +29058,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1572</v>
       </c>
@@ -29063,7 +29069,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>265</v>
       </c>
@@ -29074,7 +29080,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1573</v>
       </c>
@@ -29085,7 +29091,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>1574</v>
       </c>
@@ -29096,7 +29102,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>264</v>
       </c>
@@ -29107,7 +29113,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>263</v>
       </c>
@@ -29118,7 +29124,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>262</v>
       </c>
@@ -29129,7 +29135,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>261</v>
       </c>
@@ -29140,7 +29146,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>260</v>
       </c>
@@ -29151,7 +29157,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1575</v>
       </c>
@@ -29162,7 +29168,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>259</v>
       </c>
@@ -29173,7 +29179,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>258</v>
       </c>
@@ -29184,7 +29190,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>257</v>
       </c>
@@ -29195,7 +29201,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1576</v>
       </c>
@@ -29206,7 +29212,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1577</v>
       </c>
@@ -29217,7 +29223,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>271</v>
       </c>
@@ -29228,7 +29234,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>273</v>
       </c>
@@ -29239,7 +29245,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1578</v>
       </c>
@@ -29250,7 +29256,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1578</v>
       </c>
@@ -29261,7 +29267,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>291</v>
       </c>
@@ -29272,7 +29278,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>290</v>
       </c>
@@ -29283,7 +29289,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1581</v>
       </c>
@@ -29294,7 +29300,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>289</v>
       </c>
@@ -29305,7 +29311,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -29316,7 +29322,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>287</v>
       </c>
@@ -29327,7 +29333,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>286</v>
       </c>
@@ -29338,7 +29344,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1582</v>
       </c>
@@ -29349,7 +29355,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>285</v>
       </c>
@@ -29360,7 +29366,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1583</v>
       </c>
@@ -29371,7 +29377,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1584</v>
       </c>
@@ -29382,7 +29388,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>319</v>
       </c>
@@ -29393,7 +29399,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>318</v>
       </c>
@@ -29404,7 +29410,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1585</v>
       </c>
@@ -29415,7 +29421,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>317</v>
       </c>
@@ -29426,7 +29432,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>316</v>
       </c>
@@ -29437,7 +29443,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>315</v>
       </c>
@@ -29448,7 +29454,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>314</v>
       </c>
@@ -29459,7 +29465,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>313</v>
       </c>
@@ -29470,7 +29476,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1586</v>
       </c>
@@ -29481,7 +29487,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>312</v>
       </c>
@@ -29492,7 +29498,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>311</v>
       </c>
@@ -29503,7 +29509,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1587</v>
       </c>
@@ -29514,7 +29520,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1588</v>
       </c>
@@ -29531,7 +29537,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1589</v>
       </c>
@@ -29542,7 +29548,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>310</v>
       </c>
@@ -29553,7 +29559,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>309</v>
       </c>
@@ -29564,7 +29570,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>308</v>
       </c>
@@ -29575,7 +29581,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>350</v>
       </c>
@@ -29586,7 +29592,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>349</v>
       </c>
@@ -29597,7 +29603,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1590</v>
       </c>
@@ -29608,7 +29614,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>348</v>
       </c>
@@ -29619,7 +29625,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>347</v>
       </c>
@@ -29630,7 +29636,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>346</v>
       </c>
@@ -29641,7 +29647,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>345</v>
       </c>
@@ -29652,7 +29658,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>344</v>
       </c>
@@ -29663,7 +29669,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1591</v>
       </c>
@@ -29680,7 +29686,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1592</v>
       </c>
@@ -29697,7 +29703,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>343</v>
       </c>
@@ -29714,7 +29720,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>342</v>
       </c>
@@ -29725,7 +29731,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>341</v>
       </c>
@@ -29736,7 +29742,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>340</v>
       </c>
@@ -29747,7 +29753,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>339</v>
       </c>
@@ -29758,7 +29764,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>338</v>
       </c>
@@ -29769,7 +29775,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>337</v>
       </c>
@@ -29780,7 +29786,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>336</v>
       </c>
@@ -29791,7 +29797,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>387</v>
       </c>
@@ -29808,7 +29814,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>1593</v>
       </c>
@@ -29825,7 +29831,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1594</v>
       </c>
@@ -29842,7 +29848,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>386</v>
       </c>
@@ -29853,7 +29859,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>385</v>
       </c>
@@ -29864,7 +29870,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>384</v>
       </c>
@@ -29875,7 +29881,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>383</v>
       </c>
@@ -29886,7 +29892,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>382</v>
       </c>
@@ -29897,7 +29903,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>381</v>
       </c>
@@ -29908,7 +29914,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>380</v>
       </c>
@@ -29919,7 +29925,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>379</v>
       </c>
@@ -29930,7 +29936,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>378</v>
       </c>
@@ -29941,7 +29947,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>377</v>
       </c>
@@ -29952,7 +29958,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>376</v>
       </c>
@@ -29963,7 +29969,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>375</v>
       </c>
@@ -29974,7 +29980,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>374</v>
       </c>
@@ -29985,7 +29991,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>373</v>
       </c>
@@ -29996,7 +30002,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>372</v>
       </c>
@@ -30007,7 +30013,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>371</v>
       </c>
@@ -30018,7 +30024,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>370</v>
       </c>
@@ -30029,7 +30035,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>421</v>
       </c>
@@ -30040,7 +30046,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>420</v>
       </c>
@@ -30051,7 +30057,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>419</v>
       </c>
@@ -30062,7 +30068,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>418</v>
       </c>
@@ -30073,7 +30079,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>417</v>
       </c>
@@ -30084,7 +30090,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>416</v>
       </c>
@@ -30095,7 +30101,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>415</v>
       </c>
@@ -30106,7 +30112,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>414</v>
       </c>
@@ -30117,7 +30123,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>413</v>
       </c>
@@ -30128,7 +30134,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>412</v>
       </c>
@@ -30139,7 +30145,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>411</v>
       </c>
@@ -30150,7 +30156,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>410</v>
       </c>
@@ -30161,7 +30167,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>409</v>
       </c>
@@ -30172,7 +30178,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>408</v>
       </c>
@@ -30183,7 +30189,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>407</v>
       </c>
@@ -30194,7 +30200,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1595</v>
       </c>
@@ -30205,7 +30211,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>406</v>
       </c>
@@ -30216,7 +30222,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>405</v>
       </c>
@@ -30227,7 +30233,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>453</v>
       </c>
@@ -30238,7 +30244,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>452</v>
       </c>
@@ -30249,7 +30255,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>451</v>
       </c>
@@ -30260,7 +30266,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>450</v>
       </c>
@@ -30271,7 +30277,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>449</v>
       </c>
@@ -30282,7 +30288,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>448</v>
       </c>
@@ -30293,7 +30299,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>447</v>
       </c>
@@ -30304,7 +30310,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>446</v>
       </c>
@@ -30315,7 +30321,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>445</v>
       </c>
@@ -30326,7 +30332,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>444</v>
       </c>
@@ -30337,7 +30343,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>443</v>
       </c>
@@ -30348,7 +30354,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>442</v>
       </c>
@@ -30359,7 +30365,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>441</v>
       </c>
@@ -30370,7 +30376,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>440</v>
       </c>
@@ -30381,7 +30387,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>439</v>
       </c>
@@ -30392,7 +30398,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1596</v>
       </c>
@@ -30403,7 +30409,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>438</v>
       </c>
@@ -30414,7 +30420,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1116</v>
       </c>
@@ -30425,7 +30431,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1117</v>
       </c>
@@ -30436,7 +30442,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1598</v>
       </c>
@@ -30447,7 +30453,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1600</v>
       </c>
@@ -30458,7 +30464,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1602</v>
       </c>
@@ -30469,7 +30475,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1604</v>
       </c>
@@ -30480,7 +30486,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1606</v>
       </c>
@@ -30491,7 +30497,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1608</v>
       </c>
@@ -30502,7 +30508,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1610</v>
       </c>
@@ -30513,7 +30519,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1612</v>
       </c>
@@ -30524,7 +30530,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1614</v>
       </c>
@@ -30541,7 +30547,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1615</v>
       </c>
@@ -30552,7 +30558,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1118</v>
       </c>
@@ -30563,7 +30569,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1616</v>
       </c>
@@ -30574,7 +30580,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1119</v>
       </c>
@@ -30585,7 +30591,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1120</v>
       </c>
@@ -30596,7 +30602,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1121</v>
       </c>
@@ -30607,7 +30613,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1617</v>
       </c>
@@ -30624,7 +30630,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1122</v>
       </c>
@@ -30635,7 +30641,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1619</v>
       </c>
@@ -30646,7 +30652,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1123</v>
       </c>
@@ -30657,7 +30663,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1124</v>
       </c>
@@ -30674,7 +30680,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1125</v>
       </c>
@@ -30685,7 +30691,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1621</v>
       </c>
@@ -30702,7 +30708,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1622</v>
       </c>
@@ -30719,7 +30725,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1126</v>
       </c>
@@ -30736,7 +30742,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1127</v>
       </c>
@@ -30747,7 +30753,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1623</v>
       </c>
@@ -30758,7 +30764,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1128</v>
       </c>
@@ -30769,7 +30775,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1624</v>
       </c>
@@ -30780,7 +30786,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1625</v>
       </c>
@@ -30791,7 +30797,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1626</v>
       </c>
@@ -30802,7 +30808,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1129</v>
       </c>
@@ -30813,7 +30819,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1627</v>
       </c>
@@ -30824,7 +30830,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1130</v>
       </c>
@@ -30835,7 +30841,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1131</v>
       </c>
@@ -30846,7 +30852,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1132</v>
       </c>
@@ -30857,7 +30863,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1133</v>
       </c>
@@ -30868,7 +30874,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1134</v>
       </c>
@@ -30879,7 +30885,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1135</v>
       </c>
@@ -30890,7 +30896,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1136</v>
       </c>
@@ -30901,7 +30907,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1137</v>
       </c>
@@ -30912,7 +30918,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1138</v>
       </c>
@@ -30923,7 +30929,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1628</v>
       </c>
@@ -30934,7 +30940,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1629</v>
       </c>
@@ -30945,7 +30951,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1139</v>
       </c>
@@ -30956,7 +30962,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1140</v>
       </c>
@@ -30967,7 +30973,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1141</v>
       </c>
@@ -30978,7 +30984,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1142</v>
       </c>
@@ -30989,7 +30995,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1143</v>
       </c>
@@ -31006,7 +31012,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1144</v>
       </c>
@@ -31023,7 +31029,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1145</v>
       </c>
@@ -31034,7 +31040,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1631</v>
       </c>
@@ -31045,7 +31051,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1146</v>
       </c>
@@ -31056,7 +31062,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1147</v>
       </c>
@@ -31073,7 +31079,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1632</v>
       </c>
@@ -31090,7 +31096,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1148</v>
       </c>
@@ -31101,7 +31107,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1149</v>
       </c>
@@ -31112,7 +31118,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1150</v>
       </c>
@@ -31123,7 +31129,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1633</v>
       </c>
@@ -31134,7 +31140,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1151</v>
       </c>
@@ -31145,7 +31151,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1634</v>
       </c>
@@ -31156,7 +31162,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1152</v>
       </c>
@@ -31167,7 +31173,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1153</v>
       </c>
@@ -31178,7 +31184,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1154</v>
       </c>
@@ -31189,7 +31195,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1155</v>
       </c>
@@ -31206,7 +31212,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1156</v>
       </c>
@@ -31223,7 +31229,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1157</v>
       </c>
@@ -31234,7 +31240,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1158</v>
       </c>
@@ -31245,7 +31251,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1159</v>
       </c>
@@ -31256,7 +31262,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1160</v>
       </c>
@@ -31267,7 +31273,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1635</v>
       </c>
@@ -31278,7 +31284,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1161</v>
       </c>
@@ -31289,7 +31295,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1162</v>
       </c>
@@ -31300,7 +31306,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1163</v>
       </c>
@@ -31311,7 +31317,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1164</v>
       </c>
@@ -31322,7 +31328,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1165</v>
       </c>
@@ -31333,7 +31339,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1166</v>
       </c>
@@ -31344,7 +31350,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1636</v>
       </c>
@@ -31355,7 +31361,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1167</v>
       </c>
@@ -31366,7 +31372,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>557</v>
       </c>
@@ -31383,7 +31389,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1637</v>
       </c>
@@ -31394,7 +31400,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1168</v>
       </c>
@@ -31405,7 +31411,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1638</v>
       </c>
@@ -31416,7 +31422,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1169</v>
       </c>
@@ -31427,7 +31433,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1639</v>
       </c>
@@ -31438,7 +31444,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>564</v>
       </c>
@@ -31449,7 +31455,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1170</v>
       </c>
@@ -31460,7 +31466,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1640</v>
       </c>
@@ -31471,7 +31477,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1171</v>
       </c>
@@ -31482,7 +31488,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1172</v>
       </c>
@@ -31493,7 +31499,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>570</v>
       </c>
@@ -31510,7 +31516,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1173</v>
       </c>
@@ -31521,7 +31527,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1174</v>
       </c>
@@ -31538,7 +31544,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1641</v>
       </c>
@@ -31549,7 +31555,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1175</v>
       </c>
@@ -31560,7 +31566,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1176</v>
       </c>
@@ -31571,7 +31577,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1177</v>
       </c>
@@ -31582,7 +31588,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>578</v>
       </c>
@@ -31593,7 +31599,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1642</v>
       </c>
@@ -31604,7 +31610,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>581</v>
       </c>
@@ -31615,7 +31621,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>582</v>
       </c>
@@ -31626,7 +31632,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>454</v>
       </c>
@@ -31634,7 +31640,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>585</v>
       </c>
@@ -31645,7 +31651,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1646</v>
       </c>
@@ -31662,7 +31668,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1178</v>
       </c>
@@ -31673,7 +31679,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1179</v>
       </c>
@@ -31684,7 +31690,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1647</v>
       </c>
@@ -31695,7 +31701,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1180</v>
       </c>
@@ -31706,7 +31712,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1181</v>
       </c>
@@ -31717,7 +31723,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1648</v>
       </c>
@@ -31728,7 +31734,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1182</v>
       </c>
@@ -31739,7 +31745,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1183</v>
       </c>
@@ -31756,7 +31762,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1184</v>
       </c>
@@ -31773,7 +31779,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1185</v>
       </c>
@@ -31784,7 +31790,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1649</v>
       </c>
@@ -31795,7 +31801,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1186</v>
       </c>
@@ -31812,7 +31818,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1187</v>
       </c>
@@ -31823,7 +31829,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1650</v>
       </c>
@@ -31834,7 +31840,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1188</v>
       </c>
@@ -31845,7 +31851,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1189</v>
       </c>
@@ -31856,7 +31862,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1651</v>
       </c>
@@ -31867,7 +31873,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1652</v>
       </c>
@@ -31878,7 +31884,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1190</v>
       </c>
@@ -31889,7 +31895,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1653</v>
       </c>
@@ -31900,7 +31906,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1191</v>
       </c>
@@ -31911,7 +31917,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1192</v>
       </c>
@@ -31922,7 +31928,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1193</v>
       </c>
@@ -31933,7 +31939,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1654</v>
       </c>
@@ -31944,7 +31950,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1655</v>
       </c>
@@ -31955,7 +31961,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1656</v>
       </c>
@@ -31966,7 +31972,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1657</v>
       </c>
@@ -31977,7 +31983,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1194</v>
       </c>
@@ -31988,7 +31994,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1658</v>
       </c>
@@ -31999,7 +32005,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1196</v>
       </c>
@@ -32010,7 +32016,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1195</v>
       </c>
@@ -32021,7 +32027,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1197</v>
       </c>
@@ -32032,7 +32038,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1198</v>
       </c>
@@ -32043,7 +32049,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1659</v>
       </c>
@@ -32054,7 +32060,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1199</v>
       </c>
@@ -32065,7 +32071,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1200</v>
       </c>
@@ -32076,7 +32082,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1660</v>
       </c>
@@ -32087,7 +32093,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1661</v>
       </c>
@@ -32098,7 +32104,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1201</v>
       </c>
@@ -32109,7 +32115,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1662</v>
       </c>
@@ -32120,7 +32126,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1663</v>
       </c>
@@ -32131,7 +32137,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1664</v>
       </c>
@@ -32148,7 +32154,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1202</v>
       </c>
@@ -32159,7 +32165,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1665</v>
       </c>
@@ -32170,7 +32176,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1666</v>
       </c>
@@ -32181,7 +32187,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1203</v>
       </c>
@@ -32192,7 +32198,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1204</v>
       </c>
@@ -32203,7 +32209,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1205</v>
       </c>
@@ -32214,7 +32220,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1206</v>
       </c>
@@ -32225,7 +32231,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1207</v>
       </c>
@@ -32236,7 +32242,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1208</v>
       </c>
@@ -32247,7 +32253,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1209</v>
       </c>
@@ -32258,7 +32264,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1667</v>
       </c>
@@ -32269,7 +32275,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1210</v>
       </c>
@@ -32286,7 +32292,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1668</v>
       </c>
@@ -32303,7 +32309,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1669</v>
       </c>
@@ -32314,7 +32320,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1670</v>
       </c>
@@ -32325,7 +32331,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1211</v>
       </c>
@@ -32336,7 +32342,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1212</v>
       </c>
@@ -32347,7 +32353,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1213</v>
       </c>
@@ -32358,7 +32364,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1214</v>
       </c>
@@ -32369,7 +32375,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1671</v>
       </c>
@@ -32380,7 +32386,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1672</v>
       </c>
@@ -32394,7 +32400,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>646</v>
       </c>
@@ -32405,7 +32411,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1215</v>
       </c>
@@ -32416,7 +32422,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1674</v>
       </c>
@@ -32427,7 +32433,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1675</v>
       </c>
@@ -32438,7 +32444,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1216</v>
       </c>
@@ -32449,7 +32455,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1676</v>
       </c>
@@ -32460,7 +32466,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1217</v>
       </c>
@@ -32471,7 +32477,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1218</v>
       </c>
@@ -32482,7 +32488,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1219</v>
       </c>
@@ -32493,7 +32499,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1220</v>
       </c>
@@ -32504,7 +32510,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>1221</v>
       </c>
@@ -32515,7 +32521,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1222</v>
       </c>
@@ -32526,7 +32532,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>659</v>
       </c>
@@ -32537,7 +32543,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>661</v>
       </c>
@@ -32548,7 +32554,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1677</v>
       </c>
@@ -32559,7 +32565,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1678</v>
       </c>
@@ -32570,7 +32576,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1223</v>
       </c>
@@ -32581,7 +32587,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1224</v>
       </c>
@@ -32592,7 +32598,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1225</v>
       </c>
@@ -32603,7 +32609,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1226</v>
       </c>
@@ -32614,7 +32620,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1679</v>
       </c>
@@ -32625,7 +32631,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1681</v>
       </c>
@@ -32636,7 +32642,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1683</v>
       </c>
@@ -32647,7 +32653,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1685</v>
       </c>
@@ -32658,7 +32664,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1687</v>
       </c>
@@ -32669,7 +32675,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1689</v>
       </c>
@@ -32680,7 +32686,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1691</v>
       </c>
@@ -32691,7 +32697,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1693</v>
       </c>
@@ -32702,7 +32708,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1695</v>
       </c>
@@ -32713,7 +32719,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1227</v>
       </c>
@@ -32724,7 +32730,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1696</v>
       </c>
@@ -32735,7 +32741,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1697</v>
       </c>
@@ -32746,7 +32752,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>1228</v>
       </c>
@@ -32763,7 +32769,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1698</v>
       </c>
@@ -32774,7 +32780,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1229</v>
       </c>
@@ -32785,7 +32791,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1230</v>
       </c>
@@ -32802,7 +32808,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1231</v>
       </c>
@@ -32819,7 +32825,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>678</v>
       </c>
@@ -32830,7 +32836,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1232</v>
       </c>
@@ -32841,7 +32847,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1699</v>
       </c>
@@ -32852,7 +32858,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1233</v>
       </c>
@@ -32863,7 +32869,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1234</v>
       </c>
@@ -32874,7 +32880,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1700</v>
       </c>
@@ -32885,7 +32891,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1235</v>
       </c>
@@ -32896,7 +32902,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1236</v>
       </c>
@@ -32907,7 +32913,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1701</v>
       </c>
@@ -32918,7 +32924,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1237</v>
       </c>
@@ -32929,7 +32935,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1702</v>
       </c>
@@ -32940,7 +32946,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1238</v>
       </c>
@@ -32951,7 +32957,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1703</v>
       </c>
@@ -32962,7 +32968,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1704</v>
       </c>
@@ -32973,7 +32979,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>1705</v>
       </c>
@@ -32984,7 +32990,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>1239</v>
       </c>
@@ -32995,7 +33001,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1240</v>
       </c>
@@ -33006,7 +33012,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>1706</v>
       </c>
@@ -33017,7 +33023,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>1241</v>
       </c>
@@ -33028,7 +33034,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>1242</v>
       </c>
@@ -33039,7 +33045,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>489</v>
       </c>
@@ -33050,7 +33056,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>474</v>
       </c>
@@ -33061,7 +33067,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>476</v>
       </c>
@@ -33072,7 +33078,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>1707</v>
       </c>
@@ -33083,7 +33089,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>1708</v>
       </c>
@@ -33094,7 +33100,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>1709</v>
       </c>
@@ -33105,7 +33111,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>1710</v>
       </c>
@@ -33116,7 +33122,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>1711</v>
       </c>
@@ -33127,7 +33133,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>1712</v>
       </c>
@@ -33138,7 +33144,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>1713</v>
       </c>
@@ -33149,7 +33155,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>1714</v>
       </c>
@@ -33160,7 +33166,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>1715</v>
       </c>
@@ -33171,7 +33177,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>1716</v>
       </c>
@@ -33182,7 +33188,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>1717</v>
       </c>
@@ -33193,7 +33199,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>1718</v>
       </c>
@@ -33204,7 +33210,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>1719</v>
       </c>
@@ -33215,7 +33221,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>1720</v>
       </c>
@@ -33226,7 +33232,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>1721</v>
       </c>
@@ -33237,7 +33243,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>1722</v>
       </c>
@@ -33248,7 +33254,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>1723</v>
       </c>
@@ -33259,7 +33265,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>1724</v>
       </c>
@@ -33270,7 +33276,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>1243</v>
       </c>
@@ -33281,7 +33287,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>1725</v>
       </c>
@@ -33292,7 +33298,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>1726</v>
       </c>
@@ -33303,7 +33309,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>1727</v>
       </c>
@@ -33314,7 +33320,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>469</v>
       </c>
@@ -33325,7 +33331,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>1728</v>
       </c>
@@ -33336,7 +33342,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>1729</v>
       </c>
@@ -33347,7 +33353,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>1730</v>
       </c>
@@ -33358,7 +33364,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>465</v>
       </c>
@@ -33369,7 +33375,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>1731</v>
       </c>
@@ -33380,7 +33386,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>1732</v>
       </c>
@@ -33391,7 +33397,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>461</v>
       </c>
@@ -33402,7 +33408,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>1733</v>
       </c>
@@ -33413,7 +33419,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>1244</v>
       </c>
@@ -33424,7 +33430,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>1245</v>
       </c>
@@ -33435,7 +33441,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>456</v>
       </c>
@@ -33446,7 +33452,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>1246</v>
       </c>
@@ -33457,7 +33463,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>1735</v>
       </c>
@@ -33468,7 +33474,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>1737</v>
       </c>
@@ -33479,7 +33485,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>1739</v>
       </c>
@@ -33490,7 +33496,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>1741</v>
       </c>
@@ -33501,7 +33507,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>1743</v>
       </c>
@@ -33512,7 +33518,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>1745</v>
       </c>
@@ -33523,7 +33529,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>1247</v>
       </c>
@@ -33534,7 +33540,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>1248</v>
       </c>
@@ -33545,7 +33551,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>1749</v>
       </c>
@@ -33556,7 +33562,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>1751</v>
       </c>
@@ -33567,7 +33573,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>1249</v>
       </c>
@@ -33578,7 +33584,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>1754</v>
       </c>
@@ -33589,7 +33595,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>1250</v>
       </c>
@@ -33600,7 +33606,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>1757</v>
       </c>
@@ -33611,7 +33617,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>1251</v>
       </c>
@@ -33622,7 +33628,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>1760</v>
       </c>
@@ -33633,7 +33639,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>1762</v>
       </c>
@@ -33644,7 +33650,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>1252</v>
       </c>
@@ -33655,7 +33661,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>1765</v>
       </c>
@@ -33666,7 +33672,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>1767</v>
       </c>
@@ -33677,7 +33683,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>1254</v>
       </c>
@@ -33688,7 +33694,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>1255</v>
       </c>
@@ -33699,7 +33705,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>1256</v>
       </c>
@@ -33710,7 +33716,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>700</v>
       </c>
@@ -33721,7 +33727,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>702</v>
       </c>
@@ -33732,7 +33738,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>1257</v>
       </c>
@@ -33743,7 +33749,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>1258</v>
       </c>
@@ -33754,7 +33760,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>1771</v>
       </c>
@@ -33765,7 +33771,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>1772</v>
       </c>
@@ -33776,7 +33782,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>1259</v>
       </c>
@@ -33787,7 +33793,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>1260</v>
       </c>
@@ -33798,7 +33804,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>1261</v>
       </c>
@@ -33809,7 +33815,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>1773</v>
       </c>
@@ -33820,7 +33826,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>1262</v>
       </c>
@@ -33831,7 +33837,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>1774</v>
       </c>
@@ -33842,7 +33848,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>1263</v>
       </c>
@@ -33853,7 +33859,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>1264</v>
       </c>
@@ -33864,7 +33870,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>1775</v>
       </c>
@@ -33875,7 +33881,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>1265</v>
       </c>
@@ -33886,7 +33892,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>1266</v>
       </c>
@@ -33897,7 +33903,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>1776</v>
       </c>
@@ -33908,7 +33914,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>1777</v>
       </c>
@@ -33919,7 +33925,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>1778</v>
       </c>
@@ -33930,7 +33936,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>1779</v>
       </c>
@@ -33941,7 +33947,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>1780</v>
       </c>
@@ -33952,7 +33958,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>1781</v>
       </c>
@@ -33969,7 +33975,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>1782</v>
       </c>
@@ -33980,7 +33986,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>1783</v>
       </c>
@@ -33991,7 +33997,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>1784</v>
       </c>
@@ -34002,7 +34008,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>1785</v>
       </c>
@@ -34013,7 +34019,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>1267</v>
       </c>
@@ -34024,7 +34030,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>1268</v>
       </c>
@@ -34035,7 +34041,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>1786</v>
       </c>
@@ -34046,7 +34052,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>1269</v>
       </c>
@@ -34057,7 +34063,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>1270</v>
       </c>
@@ -34068,7 +34074,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>1787</v>
       </c>
@@ -34079,7 +34085,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>1788</v>
       </c>
@@ -34090,7 +34096,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>1271</v>
       </c>
@@ -34101,7 +34107,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>737</v>
       </c>
@@ -34112,7 +34118,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>1272</v>
       </c>
@@ -34123,7 +34129,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>1273</v>
       </c>
@@ -34134,7 +34140,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>1789</v>
       </c>
@@ -34145,7 +34151,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>1790</v>
       </c>
@@ -34156,7 +34162,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>1274</v>
       </c>
@@ -34167,7 +34173,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>1275</v>
       </c>
@@ -34178,7 +34184,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>1276</v>
       </c>
@@ -34189,7 +34195,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>1277</v>
       </c>
@@ -34200,7 +34206,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>1278</v>
       </c>
@@ -34211,7 +34217,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>1279</v>
       </c>
@@ -34222,7 +34228,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>1791</v>
       </c>
@@ -34233,7 +34239,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>1792</v>
       </c>
@@ -34244,7 +34250,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>1793</v>
       </c>
@@ -34261,7 +34267,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>1280</v>
       </c>
@@ -34272,7 +34278,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>1281</v>
       </c>
@@ -34283,7 +34289,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>1282</v>
       </c>
@@ -34294,7 +34300,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>1283</v>
       </c>
@@ -34305,7 +34311,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>1284</v>
       </c>
@@ -34316,7 +34322,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>1794</v>
       </c>
@@ -34327,7 +34333,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>1285</v>
       </c>
@@ -34338,7 +34344,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>1286</v>
       </c>
@@ -34349,7 +34355,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>1287</v>
       </c>
@@ -34360,7 +34366,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>1288</v>
       </c>
@@ -34371,7 +34377,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>1795</v>
       </c>
@@ -34382,7 +34388,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>1289</v>
       </c>
@@ -34393,7 +34399,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>1290</v>
       </c>
@@ -34404,7 +34410,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>1291</v>
       </c>
@@ -34415,7 +34421,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>1292</v>
       </c>
@@ -34426,7 +34432,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>1293</v>
       </c>
@@ -34437,7 +34443,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>1294</v>
       </c>
@@ -34448,7 +34454,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>1796</v>
       </c>
@@ -34459,7 +34465,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>1295</v>
       </c>
@@ -34470,7 +34476,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>1296</v>
       </c>
@@ -34481,7 +34487,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>1797</v>
       </c>
@@ -34492,7 +34498,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>1297</v>
       </c>
@@ -34503,7 +34509,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>1298</v>
       </c>
@@ -34514,7 +34520,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>1299</v>
       </c>
@@ -34525,7 +34531,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>1798</v>
       </c>
@@ -34542,7 +34548,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>1799</v>
       </c>
@@ -34553,7 +34559,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>1300</v>
       </c>
@@ -34564,7 +34570,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>1301</v>
       </c>
@@ -34575,7 +34581,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>1800</v>
       </c>
@@ -34586,7 +34592,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>1302</v>
       </c>
@@ -34597,7 +34603,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>1303</v>
       </c>
@@ -34608,7 +34614,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>1801</v>
       </c>
@@ -34619,7 +34625,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>1802</v>
       </c>
@@ -34630,7 +34636,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>1803</v>
       </c>
@@ -34641,7 +34647,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>1304</v>
       </c>
@@ -34652,7 +34658,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>1804</v>
       </c>
@@ -34663,7 +34669,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>1305</v>
       </c>
@@ -34674,7 +34680,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>1306</v>
       </c>
@@ -34685,7 +34691,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>1805</v>
       </c>
@@ -34696,7 +34702,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>1806</v>
       </c>
@@ -34707,7 +34713,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>1307</v>
       </c>
@@ -34718,7 +34724,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>1308</v>
       </c>
@@ -34729,7 +34735,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>1807</v>
       </c>
@@ -34740,7 +34746,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="650" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>1309</v>
       </c>
@@ -34751,7 +34757,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="651" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>1310</v>
       </c>
@@ -34762,7 +34768,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>1311</v>
       </c>
@@ -34773,7 +34779,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>1312</v>
       </c>
@@ -34784,7 +34790,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="654" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>1313</v>
       </c>
@@ -34795,7 +34801,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>799</v>
       </c>
@@ -34806,7 +34812,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>1314</v>
       </c>
@@ -34817,7 +34823,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>1808</v>
       </c>
@@ -34828,7 +34834,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>1809</v>
       </c>
@@ -34845,7 +34851,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>1810</v>
       </c>
@@ -34856,7 +34862,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>1811</v>
       </c>
@@ -34867,7 +34873,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>1812</v>
       </c>
@@ -34878,7 +34884,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>1813</v>
       </c>
@@ -34889,7 +34895,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>1315</v>
       </c>
@@ -34900,7 +34906,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>1316</v>
       </c>
@@ -34911,7 +34917,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>1317</v>
       </c>
@@ -34922,7 +34928,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>1814</v>
       </c>
@@ -34933,7 +34939,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>1318</v>
       </c>
@@ -34944,7 +34950,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>1815</v>
       </c>
@@ -34955,7 +34961,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>1816</v>
       </c>
@@ -34966,7 +34972,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>1817</v>
       </c>
@@ -34983,7 +34989,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>1818</v>
       </c>
@@ -34994,7 +35000,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>1820</v>
       </c>
@@ -35005,7 +35011,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>1821</v>
       </c>
@@ -35016,7 +35022,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="674" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>1823</v>
       </c>
@@ -35027,7 +35033,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>1824</v>
       </c>
@@ -35038,7 +35044,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>1319</v>
       </c>
@@ -35049,7 +35055,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>1320</v>
       </c>
@@ -35060,7 +35066,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>820</v>
       </c>
@@ -35071,7 +35077,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>1321</v>
       </c>
@@ -35082,7 +35088,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>1825</v>
       </c>
@@ -35093,7 +35099,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>1826</v>
       </c>
@@ -35104,7 +35110,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>1827</v>
       </c>
@@ -35115,7 +35121,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>1322</v>
       </c>
@@ -35126,7 +35132,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>1323</v>
       </c>
@@ -35137,7 +35143,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>1324</v>
       </c>
@@ -35148,7 +35154,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>1325</v>
       </c>
@@ -35159,7 +35165,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>1326</v>
       </c>
@@ -35170,7 +35176,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>1828</v>
       </c>
@@ -35181,7 +35187,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>1829</v>
       </c>
@@ -35192,7 +35198,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>1830</v>
       </c>
@@ -35203,7 +35209,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>1327</v>
       </c>
@@ -35214,7 +35220,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>1328</v>
       </c>
@@ -35225,7 +35231,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>1329</v>
       </c>
@@ -35236,7 +35242,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>1330</v>
       </c>
@@ -35247,7 +35253,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>1831</v>
       </c>
@@ -35258,7 +35264,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="696" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>1331</v>
       </c>
@@ -35269,7 +35275,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>1332</v>
       </c>
@@ -35280,7 +35286,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>1333</v>
       </c>
@@ -35291,7 +35297,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>1334</v>
       </c>
@@ -35302,7 +35308,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>1335</v>
       </c>
@@ -35313,7 +35319,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>1832</v>
       </c>
@@ -35324,7 +35330,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>1336</v>
       </c>
@@ -35335,7 +35341,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>1337</v>
       </c>
@@ -35346,7 +35352,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>1338</v>
       </c>
@@ -35357,7 +35363,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1339</v>
       </c>
@@ -35368,7 +35374,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>1340</v>
       </c>
@@ -35379,7 +35385,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>1833</v>
       </c>
@@ -35390,7 +35396,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>1834</v>
       </c>
@@ -35401,7 +35407,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>1341</v>
       </c>
@@ -35412,7 +35418,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>1342</v>
       </c>
@@ -35423,7 +35429,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>1343</v>
       </c>
@@ -35434,7 +35440,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>1344</v>
       </c>
@@ -35445,7 +35451,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>1345</v>
       </c>
@@ -35456,7 +35462,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>1346</v>
       </c>
@@ -35467,7 +35473,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>1347</v>
       </c>
@@ -35478,7 +35484,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>1348</v>
       </c>
@@ -35489,7 +35495,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>1349</v>
       </c>
@@ -35500,7 +35506,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>1350</v>
       </c>
@@ -35511,7 +35517,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>1351</v>
       </c>
@@ -35522,7 +35528,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>1835</v>
       </c>
@@ -35533,7 +35539,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>1352</v>
       </c>
@@ -35544,7 +35550,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>1353</v>
       </c>
@@ -35555,7 +35561,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>1354</v>
       </c>
@@ -35566,7 +35572,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>1355</v>
       </c>
@@ -35577,7 +35583,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>1356</v>
       </c>
@@ -35588,7 +35594,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>1836</v>
       </c>
@@ -35599,7 +35605,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>1357</v>
       </c>
@@ -35610,7 +35616,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>1358</v>
       </c>
@@ -35621,7 +35627,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>1359</v>
       </c>
@@ -35632,7 +35638,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="730" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>1360</v>
       </c>
@@ -35643,7 +35649,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>1361</v>
       </c>
@@ -35654,7 +35660,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>1362</v>
       </c>
@@ -35665,7 +35671,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>1837</v>
       </c>
@@ -35676,7 +35682,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>1838</v>
       </c>
@@ -35687,7 +35693,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>1363</v>
       </c>
@@ -35698,7 +35704,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>1364</v>
       </c>
@@ -35709,7 +35715,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>1365</v>
       </c>
@@ -35720,7 +35726,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>1839</v>
       </c>
@@ -35731,7 +35737,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>1366</v>
       </c>
@@ -35742,7 +35748,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>1367</v>
       </c>
@@ -35753,7 +35759,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>1368</v>
       </c>
@@ -35764,7 +35770,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>1369</v>
       </c>
@@ -35775,7 +35781,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>1370</v>
       </c>
@@ -35786,7 +35792,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>1371</v>
       </c>
@@ -35797,7 +35803,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>1840</v>
       </c>
@@ -35808,7 +35814,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>1372</v>
       </c>
@@ -35819,7 +35825,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>1373</v>
       </c>
@@ -35830,7 +35836,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>1841</v>
       </c>
@@ -35841,7 +35847,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>1374</v>
       </c>
@@ -35852,7 +35858,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>1375</v>
       </c>
@@ -35863,7 +35869,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>1376</v>
       </c>
@@ -35874,7 +35880,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>1842</v>
       </c>
@@ -35885,7 +35891,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>1377</v>
       </c>
@@ -35896,7 +35902,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>1378</v>
       </c>
@@ -35907,7 +35913,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>1843</v>
       </c>
@@ -35918,7 +35924,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>1379</v>
       </c>
@@ -35929,7 +35935,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>1380</v>
       </c>
@@ -35940,7 +35946,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>1844</v>
       </c>
@@ -35951,7 +35957,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>1381</v>
       </c>
@@ -35962,7 +35968,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>1845</v>
       </c>
@@ -35973,7 +35979,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>1382</v>
       </c>
@@ -35984,7 +35990,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>1383</v>
       </c>
@@ -35995,7 +36001,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>1384</v>
       </c>
@@ -36006,7 +36012,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>1385</v>
       </c>
@@ -36017,7 +36023,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>1386</v>
       </c>
@@ -36028,7 +36034,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>1387</v>
       </c>
@@ -36039,7 +36045,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>1388</v>
       </c>
@@ -36050,7 +36056,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>1389</v>
       </c>
@@ -36061,7 +36067,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>1390</v>
       </c>
@@ -36072,7 +36078,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>1391</v>
       </c>
@@ -36083,7 +36089,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="771" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>1846</v>
       </c>
@@ -36094,7 +36100,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="772" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>1392</v>
       </c>
@@ -36105,7 +36111,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="773" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>1393</v>
       </c>
@@ -36116,7 +36122,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="774" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>1847</v>
       </c>
@@ -36127,7 +36133,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="775" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>1848</v>
       </c>
@@ -36138,7 +36144,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="776" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>1394</v>
       </c>
@@ -36149,7 +36155,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>1395</v>
       </c>
@@ -36160,7 +36166,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>1396</v>
       </c>
@@ -36171,7 +36177,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="779" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>1397</v>
       </c>
@@ -36182,7 +36188,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="780" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>1398</v>
       </c>
@@ -36193,7 +36199,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="781" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>1399</v>
       </c>
@@ -36204,7 +36210,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>1400</v>
       </c>
@@ -36215,7 +36221,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="783" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>1401</v>
       </c>
@@ -36226,7 +36232,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="784" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>1402</v>
       </c>
@@ -36237,7 +36243,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="785" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>1403</v>
       </c>
@@ -36248,7 +36254,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>1404</v>
       </c>
@@ -36259,7 +36265,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>1405</v>
       </c>
@@ -36270,7 +36276,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>1406</v>
       </c>
@@ -36281,7 +36287,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>1407</v>
       </c>
@@ -36292,7 +36298,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="790" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>1408</v>
       </c>
@@ -36303,7 +36309,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="791" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>1409</v>
       </c>
@@ -36314,7 +36320,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="792" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>1410</v>
       </c>
@@ -36325,7 +36331,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="793" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>1411</v>
       </c>
@@ -36336,7 +36342,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="794" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>1412</v>
       </c>
@@ -36347,7 +36353,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="795" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>1413</v>
       </c>
@@ -36358,7 +36364,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="796" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>1414</v>
       </c>
@@ -36369,7 +36375,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="797" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>1415</v>
       </c>
@@ -36380,7 +36386,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="798" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>1849</v>
       </c>
@@ -36391,7 +36397,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="799" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>1850</v>
       </c>
@@ -36402,7 +36408,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="800" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>1416</v>
       </c>
@@ -36413,7 +36419,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="801" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>1417</v>
       </c>
@@ -36424,7 +36430,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="802" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>1418</v>
       </c>
@@ -36435,7 +36441,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="803" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>1419</v>
       </c>
@@ -36446,7 +36452,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>1420</v>
       </c>
@@ -36457,7 +36463,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="805" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>1421</v>
       </c>
@@ -36468,7 +36474,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>1422</v>
       </c>
@@ -36479,7 +36485,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="807" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>1853</v>
       </c>
@@ -36490,7 +36496,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="808" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>1855</v>
       </c>
@@ -36501,7 +36507,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>1423</v>
       </c>
@@ -36512,7 +36518,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="810" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>1424</v>
       </c>
@@ -36523,7 +36529,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="811" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>1425</v>
       </c>
@@ -36534,7 +36540,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>1859</v>
       </c>
@@ -36545,7 +36551,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>1861</v>
       </c>
@@ -36556,7 +36562,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="814" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>1426</v>
       </c>
@@ -36567,7 +36573,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="815" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>1863</v>
       </c>
@@ -36578,7 +36584,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="816" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>1864</v>
       </c>
@@ -36589,7 +36595,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>1427</v>
       </c>
@@ -36600,7 +36606,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="818" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>1428</v>
       </c>
@@ -36611,7 +36617,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="819" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>1865</v>
       </c>
@@ -36622,7 +36628,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="820" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>1429</v>
       </c>
@@ -36633,7 +36639,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>1866</v>
       </c>
@@ -36644,7 +36650,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="822" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>1867</v>
       </c>
@@ -36655,7 +36661,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="823" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>1868</v>
       </c>
@@ -36666,7 +36672,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>1430</v>
       </c>
@@ -36677,7 +36683,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="825" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>1869</v>
       </c>
@@ -36688,7 +36694,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>1431</v>
       </c>
@@ -36699,7 +36705,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="827" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>1432</v>
       </c>
@@ -36710,7 +36716,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="828" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>1433</v>
       </c>
@@ -36721,7 +36727,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="829" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>1434</v>
       </c>
@@ -36732,7 +36738,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="830" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>1435</v>
       </c>
@@ -36743,7 +36749,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="831" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>1436</v>
       </c>
@@ -36754,7 +36760,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="832" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>1870</v>
       </c>
@@ -36765,7 +36771,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="833" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>1437</v>
       </c>
@@ -36776,7 +36782,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="834" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>1438</v>
       </c>
@@ -36787,7 +36793,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="835" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>1439</v>
       </c>
@@ -36798,7 +36804,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="836" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>1440</v>
       </c>
@@ -36809,7 +36815,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="837" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>1871</v>
       </c>
@@ -36820,7 +36826,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="838" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>1872</v>
       </c>
@@ -36831,7 +36837,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="839" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>1873</v>
       </c>
@@ -36842,7 +36848,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="840" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>1441</v>
       </c>
@@ -36853,7 +36859,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="841" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>1874</v>
       </c>
@@ -36864,7 +36870,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>972</v>
       </c>
@@ -36875,7 +36881,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="843" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>1875</v>
       </c>
@@ -36892,7 +36898,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="844" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>1876</v>
       </c>
@@ -36903,7 +36909,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="845" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>1442</v>
       </c>
@@ -36914,7 +36920,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>1877</v>
       </c>
@@ -36925,7 +36931,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="847" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>1878</v>
       </c>
@@ -36936,7 +36942,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="848" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>1879</v>
       </c>
@@ -36953,7 +36959,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="849" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>1443</v>
       </c>
@@ -36970,7 +36976,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="850" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>1444</v>
       </c>
@@ -36987,7 +36993,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="851" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>1445</v>
       </c>
@@ -36998,7 +37004,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="852" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>1446</v>
       </c>
@@ -37009,7 +37015,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="853" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>1447</v>
       </c>
@@ -37020,7 +37026,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="854" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>1880</v>
       </c>
@@ -37031,7 +37037,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="855" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>1881</v>
       </c>
@@ -37042,7 +37048,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="856" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>1882</v>
       </c>
@@ -37053,7 +37059,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="857" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>1448</v>
       </c>
@@ -37064,7 +37070,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="858" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>1449</v>
       </c>
@@ -37075,7 +37081,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="859" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>1883</v>
       </c>
@@ -37086,7 +37092,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="860" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>1884</v>
       </c>
@@ -37097,7 +37103,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="861" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>1885</v>
       </c>
@@ -37108,7 +37114,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="862" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>1886</v>
       </c>
@@ -37119,7 +37125,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="863" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>1450</v>
       </c>
@@ -37130,7 +37136,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="864" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>1887</v>
       </c>
@@ -37141,7 +37147,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="865" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>1888</v>
       </c>
@@ -37152,7 +37158,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="866" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>1889</v>
       </c>
@@ -37169,7 +37175,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="867" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>1451</v>
       </c>
@@ -37186,7 +37192,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="868" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>1452</v>
       </c>
@@ -37197,7 +37203,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="869" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>1890</v>
       </c>
@@ -37208,7 +37214,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>1001</v>
       </c>
@@ -37219,7 +37225,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="871" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>1453</v>
       </c>
@@ -37230,7 +37236,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="872" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>1454</v>
       </c>
@@ -37241,7 +37247,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="873" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>1891</v>
       </c>
@@ -37252,7 +37258,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="874" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>1455</v>
       </c>
@@ -37263,7 +37269,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="875" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>1456</v>
       </c>
@@ -37274,7 +37280,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="876" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>1893</v>
       </c>
@@ -37285,7 +37291,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="877" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>1457</v>
       </c>
@@ -37296,7 +37302,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="878" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>1458</v>
       </c>
@@ -37307,7 +37313,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="879" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>1459</v>
       </c>
@@ -37318,7 +37324,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="880" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>1460</v>
       </c>
@@ -37329,7 +37335,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>1894</v>
       </c>
@@ -37340,7 +37346,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>1895</v>
       </c>
@@ -37351,7 +37357,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>1461</v>
       </c>
@@ -37362,7 +37368,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>1462</v>
       </c>
@@ -37373,7 +37379,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="885" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>1463</v>
       </c>
@@ -37384,7 +37390,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>1896</v>
       </c>
@@ -37395,7 +37401,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="887" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>1897</v>
       </c>
@@ -37406,7 +37412,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>1019</v>
       </c>
@@ -37417,7 +37423,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>1021</v>
       </c>
@@ -37428,7 +37434,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="890" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>1898</v>
       </c>
@@ -37439,7 +37445,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="891" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>1464</v>
       </c>
@@ -37450,7 +37456,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>1465</v>
       </c>
@@ -37461,7 +37467,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>1025</v>
       </c>
@@ -37472,7 +37478,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="894" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>1466</v>
       </c>
@@ -37483,7 +37489,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>1899</v>
       </c>
@@ -37494,7 +37500,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="896" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>1467</v>
       </c>
@@ -37505,7 +37511,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>1468</v>
       </c>
@@ -37516,7 +37522,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>1469</v>
       </c>
@@ -37527,7 +37533,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>1901</v>
       </c>
@@ -37538,7 +37544,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>1903</v>
       </c>
@@ -37549,7 +37555,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>1904</v>
       </c>
@@ -37560,7 +37566,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>1905</v>
       </c>
@@ -37571,7 +37577,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>1470</v>
       </c>
@@ -37582,7 +37588,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>1471</v>
       </c>
@@ -37593,7 +37599,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>1906</v>
       </c>
@@ -37604,7 +37610,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="906" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>1472</v>
       </c>
@@ -37615,7 +37621,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>1473</v>
       </c>
@@ -37626,7 +37632,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>1474</v>
       </c>
@@ -37637,7 +37643,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>1475</v>
       </c>
@@ -37648,7 +37654,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>1476</v>
       </c>
@@ -37659,7 +37665,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>1477</v>
       </c>
@@ -37670,7 +37676,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="912" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>1478</v>
       </c>
@@ -37681,7 +37687,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>1479</v>
       </c>
@@ -37692,7 +37698,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="914" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>1480</v>
       </c>
@@ -37703,7 +37709,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>1481</v>
       </c>
@@ -37714,7 +37720,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>1911</v>
       </c>
@@ -37725,7 +37731,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="917" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>1482</v>
       </c>
@@ -37736,7 +37742,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>1483</v>
       </c>
@@ -37747,7 +37753,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>1484</v>
       </c>
@@ -37758,7 +37764,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>1485</v>
       </c>
@@ -37769,7 +37775,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>1913</v>
       </c>
@@ -37780,7 +37786,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="922" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>1048</v>
       </c>
@@ -37791,7 +37797,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>1486</v>
       </c>
@@ -37802,7 +37808,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="924" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>1487</v>
       </c>
@@ -37813,7 +37819,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="925" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>1488</v>
       </c>
@@ -37824,7 +37830,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>1489</v>
       </c>
@@ -37835,7 +37841,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>1915</v>
       </c>
@@ -37846,7 +37852,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>1490</v>
       </c>
@@ -37857,7 +37863,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="929" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>1916</v>
       </c>
@@ -37868,7 +37874,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="930" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>1491</v>
       </c>
@@ -37879,7 +37885,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="931" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>1492</v>
       </c>
@@ -37890,7 +37896,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="932" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>1493</v>
       </c>
@@ -37901,7 +37907,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="933" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1060</v>
       </c>
@@ -37912,7 +37918,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>1494</v>
       </c>
@@ -37923,7 +37929,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="935" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1063</v>
       </c>
@@ -37934,7 +37940,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="936" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1065</v>
       </c>
@@ -37945,7 +37951,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="937" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>1495</v>
       </c>
@@ -37956,7 +37962,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="938" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>1496</v>
       </c>
@@ -37967,7 +37973,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>1497</v>
       </c>
@@ -37978,7 +37984,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="940" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>1498</v>
       </c>
@@ -37989,7 +37995,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>1917</v>
       </c>
@@ -38000,7 +38006,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="942" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>1499</v>
       </c>
@@ -38011,7 +38017,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="943" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>1500</v>
       </c>
@@ -38022,7 +38028,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="944" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>1501</v>
       </c>
@@ -38033,7 +38039,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="945" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>1502</v>
       </c>
@@ -38044,7 +38050,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="946" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>1503</v>
       </c>
@@ -38055,7 +38061,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="947" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>1918</v>
       </c>
@@ -38066,7 +38072,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="948" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>1919</v>
       </c>
@@ -38077,7 +38083,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="949" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>1504</v>
       </c>
@@ -38088,7 +38094,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="950" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>1920</v>
       </c>
@@ -38099,7 +38105,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="951" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>1505</v>
       </c>
@@ -38110,7 +38116,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="952" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>1506</v>
       </c>
@@ -38121,7 +38127,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="953" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>1507</v>
       </c>
@@ -38132,7 +38138,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="954" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>1921</v>
       </c>
@@ -38143,7 +38149,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="955" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>1508</v>
       </c>
@@ -38154,7 +38160,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>1922</v>
       </c>
@@ -38165,7 +38171,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="957" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>1923</v>
       </c>
@@ -38176,7 +38182,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="958" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>1509</v>
       </c>
@@ -38187,7 +38193,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="959" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>1510</v>
       </c>
@@ -38198,7 +38204,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="960" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>1924</v>
       </c>
@@ -38209,7 +38215,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="961" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>1511</v>
       </c>
@@ -38220,7 +38226,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="962" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>1512</v>
       </c>
@@ -38231,7 +38237,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="963" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>1513</v>
       </c>
@@ -38242,7 +38248,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="964" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A964" t="s">
         <v>1926</v>
       </c>
@@ -38253,7 +38259,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="965" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A965" t="s">
         <v>1927</v>
       </c>
@@ -38264,7 +38270,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="966" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A966" t="s">
         <v>1928</v>
       </c>
@@ -38275,7 +38281,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="967" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
         <v>1929</v>
       </c>
@@ -38286,7 +38292,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="968" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
         <v>1930</v>
       </c>
@@ -38297,7 +38303,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="969" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A969" t="s">
         <v>1514</v>
       </c>
@@ -38308,7 +38314,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="970" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
         <v>1515</v>
       </c>
@@ -38319,7 +38325,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="971" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
         <v>1516</v>
       </c>
@@ -38330,7 +38336,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="972" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
         <v>1931</v>
       </c>
@@ -38341,7 +38347,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="973" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
         <v>1517</v>
       </c>
@@ -38352,7 +38358,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>1098</v>
       </c>
@@ -38363,7 +38369,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="975" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>1100</v>
       </c>
@@ -38374,7 +38380,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>1102</v>
       </c>
@@ -38385,7 +38391,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="977" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>1104</v>
       </c>
@@ -38396,7 +38402,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="978" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
         <v>1106</v>
       </c>
@@ -38407,7 +38413,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="979" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
         <v>1933</v>
       </c>
@@ -38418,7 +38424,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="980" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
         <v>1518</v>
       </c>
@@ -38429,7 +38435,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="981" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>1109</v>
       </c>
@@ -38440,7 +38446,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="982" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>1111</v>
       </c>
@@ -38451,7 +38457,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="983" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
         <v>1519</v>
       </c>
@@ -38462,7 +38468,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="984" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
         <v>1934</v>
       </c>
@@ -38473,7 +38479,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="985" spans="1:3" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
         <v>1935</v>
       </c>

--- a/Parameters--do not translate list--2023_ambiguous .xlsx
+++ b/Parameters--do not translate list--2023_ambiguous .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboros\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboros\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B4B6A-4532-428A-99F5-D91BA78F5B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C69DC9A-D4CE-4930-8B9D-8E7E4D0C3E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{D5A22007-63F0-4073-B14E-DAC0B9B386F1}"/>
   </bookViews>
@@ -26826,7 +26826,7 @@
     <t>can be used for abbreviating millions.</t>
   </si>
   <si>
-    <t>test</t>
+    <t>commentariu F2</t>
   </si>
 </sst>
 </file>
@@ -27292,12 +27292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD05EA-F48C-4F54-9A38-533BF9BABA08}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27326,7 +27325,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -27339,8 +27338,11 @@
       <c r="D2" t="s">
         <v>2833</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -27385,7 +27387,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -27396,7 +27398,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -27407,7 +27409,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -27418,7 +27420,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -27429,7 +27431,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -27440,7 +27442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -27451,7 +27453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -27478,11 +27480,8 @@
       <c r="E13" t="s">
         <v>2851</v>
       </c>
-      <c r="F13" t="s">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -27510,7 +27509,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -27521,7 +27520,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -27532,7 +27531,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -27543,7 +27542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -27554,7 +27553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -27565,7 +27564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -27576,7 +27575,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1526</v>
       </c>
@@ -27587,7 +27586,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1527</v>
       </c>
@@ -27598,7 +27597,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -27609,7 +27608,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -27620,7 +27619,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1528</v>
       </c>
@@ -27631,7 +27630,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -27642,7 +27641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -27653,7 +27652,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -27664,7 +27663,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -27675,7 +27674,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -27686,7 +27685,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -27697,7 +27696,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -27708,7 +27707,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -27719,7 +27718,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -27730,7 +27729,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -27741,7 +27740,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -27769,7 +27768,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -27780,7 +27779,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -27791,7 +27790,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -27802,7 +27801,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -27813,7 +27812,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -27824,7 +27823,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -27835,7 +27834,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -27846,7 +27845,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -27857,7 +27856,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -27868,7 +27867,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -27896,7 +27895,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -27907,7 +27906,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -27918,7 +27917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -27929,7 +27928,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -27940,7 +27939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -27951,7 +27950,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1532</v>
       </c>
@@ -27962,7 +27961,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1533</v>
       </c>
@@ -27973,7 +27972,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -27984,7 +27983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1535</v>
       </c>
@@ -27995,7 +27994,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1536</v>
       </c>
@@ -28006,7 +28005,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1537</v>
       </c>
@@ -28017,7 +28016,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>99</v>
       </c>
@@ -28028,7 +28027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>101</v>
       </c>
@@ -28039,7 +28038,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>103</v>
       </c>
@@ -28051,7 +28050,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1539</v>
       </c>
@@ -28062,7 +28061,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>1540</v>
       </c>
@@ -28073,7 +28072,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1541</v>
       </c>
@@ -28084,7 +28083,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1542</v>
       </c>
@@ -28095,7 +28094,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1543</v>
       </c>
@@ -28106,7 +28105,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1544</v>
       </c>
@@ -28117,7 +28116,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>1545</v>
       </c>
@@ -28128,7 +28127,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>1546</v>
       </c>
@@ -28139,7 +28138,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>1547</v>
       </c>
@@ -28150,7 +28149,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>1548</v>
       </c>
@@ -28161,7 +28160,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>1549</v>
       </c>
@@ -28172,7 +28171,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>1550</v>
       </c>
@@ -28183,7 +28182,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>1551</v>
       </c>
@@ -28194,7 +28193,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>1552</v>
       </c>
@@ -28205,7 +28204,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>1553</v>
       </c>
@@ -28216,7 +28215,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>1554</v>
       </c>
@@ -28227,7 +28226,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>1555</v>
       </c>
@@ -28238,7 +28237,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>122</v>
       </c>
@@ -28249,7 +28248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>128</v>
       </c>
@@ -28260,7 +28259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>125</v>
       </c>
@@ -28271,7 +28270,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>1556</v>
       </c>
@@ -28282,7 +28281,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1557</v>
       </c>
@@ -28293,7 +28292,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -28304,7 +28303,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>141</v>
       </c>
@@ -28315,7 +28314,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>142</v>
       </c>
@@ -28326,7 +28325,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>143</v>
       </c>
@@ -28337,7 +28336,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>144</v>
       </c>
@@ -28348,7 +28347,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -28359,7 +28358,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -28370,7 +28369,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -28381,7 +28380,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -28392,7 +28391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -28403,7 +28402,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>150</v>
       </c>
@@ -28414,7 +28413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -28425,7 +28424,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>154</v>
       </c>
@@ -28436,7 +28435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -28447,7 +28446,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>158</v>
       </c>
@@ -28458,7 +28457,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -28469,7 +28468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -28480,7 +28479,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -28491,7 +28490,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>166</v>
       </c>
@@ -28502,7 +28501,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>168</v>
       </c>
@@ -28513,7 +28512,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>170</v>
       </c>
@@ -28541,7 +28540,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>174</v>
       </c>
@@ -28552,7 +28551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -28563,7 +28562,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>178</v>
       </c>
@@ -28574,7 +28573,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>180</v>
       </c>
@@ -28585,7 +28584,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>201</v>
       </c>
@@ -28596,7 +28595,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>202</v>
       </c>
@@ -28607,7 +28606,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -28618,7 +28617,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1560</v>
       </c>
@@ -28629,7 +28628,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1562</v>
       </c>
@@ -28640,7 +28639,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1563</v>
       </c>
@@ -28651,7 +28650,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -28662,7 +28661,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>200</v>
       </c>
@@ -28673,7 +28672,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -28684,7 +28683,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1566</v>
       </c>
@@ -28695,7 +28694,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>199</v>
       </c>
@@ -28706,7 +28705,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1568</v>
       </c>
@@ -28717,7 +28716,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>198</v>
       </c>
@@ -28728,7 +28727,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>197</v>
       </c>
@@ -28739,7 +28738,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>196</v>
       </c>
@@ -28750,7 +28749,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>195</v>
       </c>
@@ -28761,7 +28760,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>194</v>
       </c>
@@ -28772,7 +28771,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>204</v>
       </c>
@@ -28783,7 +28782,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>206</v>
       </c>
@@ -28811,7 +28810,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>210</v>
       </c>
@@ -28856,7 +28855,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -28867,7 +28866,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -28878,7 +28877,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>236</v>
       </c>
@@ -28889,7 +28888,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>235</v>
       </c>
@@ -28934,7 +28933,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>232</v>
       </c>
@@ -28945,7 +28944,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>231</v>
       </c>
@@ -28956,7 +28955,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>221</v>
       </c>
@@ -28970,7 +28969,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>230</v>
       </c>
@@ -28981,7 +28980,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>229</v>
       </c>
@@ -28992,7 +28991,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>228</v>
       </c>
@@ -29003,7 +29002,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>227</v>
       </c>
@@ -29014,7 +29013,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -29025,7 +29024,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1571</v>
       </c>
@@ -29036,7 +29035,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>267</v>
       </c>
@@ -29047,7 +29046,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -29058,7 +29057,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1572</v>
       </c>
@@ -29069,7 +29068,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>265</v>
       </c>
@@ -29080,7 +29079,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1573</v>
       </c>
@@ -29091,7 +29090,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>1574</v>
       </c>
@@ -29102,7 +29101,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>264</v>
       </c>
@@ -29113,7 +29112,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>263</v>
       </c>
@@ -29124,7 +29123,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>262</v>
       </c>
@@ -29135,7 +29134,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>261</v>
       </c>
@@ -29146,7 +29145,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>260</v>
       </c>
@@ -29157,7 +29156,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1575</v>
       </c>
@@ -29168,7 +29167,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>259</v>
       </c>
@@ -29179,7 +29178,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>258</v>
       </c>
@@ -29190,7 +29189,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>257</v>
       </c>
@@ -29201,7 +29200,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1576</v>
       </c>
@@ -29212,7 +29211,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1577</v>
       </c>
@@ -29223,7 +29222,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>271</v>
       </c>
@@ -29234,7 +29233,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>273</v>
       </c>
@@ -29245,7 +29244,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1578</v>
       </c>
@@ -29256,7 +29255,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1578</v>
       </c>
@@ -29267,7 +29266,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>291</v>
       </c>
@@ -29278,7 +29277,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>290</v>
       </c>
@@ -29289,7 +29288,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1581</v>
       </c>
@@ -29300,7 +29299,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>289</v>
       </c>
@@ -29311,7 +29310,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -29322,7 +29321,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>287</v>
       </c>
@@ -29333,7 +29332,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>286</v>
       </c>
@@ -29344,7 +29343,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1582</v>
       </c>
@@ -29355,7 +29354,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>285</v>
       </c>
@@ -29366,7 +29365,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1583</v>
       </c>
@@ -29377,7 +29376,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1584</v>
       </c>
@@ -29388,7 +29387,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>319</v>
       </c>
@@ -29399,7 +29398,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>318</v>
       </c>
@@ -29410,7 +29409,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1585</v>
       </c>
@@ -29421,7 +29420,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>317</v>
       </c>
@@ -29432,7 +29431,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>316</v>
       </c>
@@ -29443,7 +29442,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>315</v>
       </c>
@@ -29454,7 +29453,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>314</v>
       </c>
@@ -29465,7 +29464,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>313</v>
       </c>
@@ -29476,7 +29475,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1586</v>
       </c>
@@ -29487,7 +29486,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>312</v>
       </c>
@@ -29498,7 +29497,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>311</v>
       </c>
@@ -29509,7 +29508,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1587</v>
       </c>
@@ -29537,7 +29536,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1589</v>
       </c>
@@ -29548,7 +29547,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>310</v>
       </c>
@@ -29559,7 +29558,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>309</v>
       </c>
@@ -29570,7 +29569,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>308</v>
       </c>
@@ -29581,7 +29580,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>350</v>
       </c>
@@ -29592,7 +29591,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>349</v>
       </c>
@@ -29603,7 +29602,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1590</v>
       </c>
@@ -29614,7 +29613,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>348</v>
       </c>
@@ -29625,7 +29624,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>347</v>
       </c>
@@ -29636,7 +29635,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>346</v>
       </c>
@@ -29647,7 +29646,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>345</v>
       </c>
@@ -29658,7 +29657,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>344</v>
       </c>
@@ -29720,7 +29719,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>342</v>
       </c>
@@ -29731,7 +29730,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>341</v>
       </c>
@@ -29742,7 +29741,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>340</v>
       </c>
@@ -29753,7 +29752,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>339</v>
       </c>
@@ -29764,7 +29763,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>338</v>
       </c>
@@ -29775,7 +29774,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>337</v>
       </c>
@@ -29786,7 +29785,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>336</v>
       </c>
@@ -29848,7 +29847,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>386</v>
       </c>
@@ -29859,7 +29858,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>385</v>
       </c>
@@ -29870,7 +29869,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>384</v>
       </c>
@@ -29881,7 +29880,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>383</v>
       </c>
@@ -29892,7 +29891,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>382</v>
       </c>
@@ -29903,7 +29902,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>381</v>
       </c>
@@ -29914,7 +29913,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>380</v>
       </c>
@@ -29925,7 +29924,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>379</v>
       </c>
@@ -29936,7 +29935,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>378</v>
       </c>
@@ -29947,7 +29946,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>377</v>
       </c>
@@ -29958,7 +29957,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>376</v>
       </c>
@@ -29969,7 +29968,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>375</v>
       </c>
@@ -29980,7 +29979,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>374</v>
       </c>
@@ -29991,7 +29990,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>373</v>
       </c>
@@ -30002,7 +30001,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>372</v>
       </c>
@@ -30013,7 +30012,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>371</v>
       </c>
@@ -30024,7 +30023,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>370</v>
       </c>
@@ -30035,7 +30034,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>421</v>
       </c>
@@ -30046,7 +30045,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>420</v>
       </c>
@@ -30057,7 +30056,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>419</v>
       </c>
@@ -30068,7 +30067,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>418</v>
       </c>
@@ -30079,7 +30078,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>417</v>
       </c>
@@ -30090,7 +30089,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>416</v>
       </c>
@@ -30101,7 +30100,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>415</v>
       </c>
@@ -30112,7 +30111,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>414</v>
       </c>
@@ -30123,7 +30122,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>413</v>
       </c>
@@ -30134,7 +30133,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>412</v>
       </c>
@@ -30145,7 +30144,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>411</v>
       </c>
@@ -30156,7 +30155,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>410</v>
       </c>
@@ -30167,7 +30166,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>409</v>
       </c>
@@ -30178,7 +30177,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>408</v>
       </c>
@@ -30189,7 +30188,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>407</v>
       </c>
@@ -30200,7 +30199,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1595</v>
       </c>
@@ -30211,7 +30210,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>406</v>
       </c>
@@ -30222,7 +30221,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>405</v>
       </c>
@@ -30233,7 +30232,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>453</v>
       </c>
@@ -30244,7 +30243,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>452</v>
       </c>
@@ -30255,7 +30254,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>451</v>
       </c>
@@ -30266,7 +30265,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>450</v>
       </c>
@@ -30277,7 +30276,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>449</v>
       </c>
@@ -30288,7 +30287,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>448</v>
       </c>
@@ -30299,7 +30298,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>447</v>
       </c>
@@ -30310,7 +30309,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>446</v>
       </c>
@@ -30321,7 +30320,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>445</v>
       </c>
@@ -30332,7 +30331,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>444</v>
       </c>
@@ -30343,7 +30342,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>443</v>
       </c>
@@ -30354,7 +30353,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>442</v>
       </c>
@@ -30365,7 +30364,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>441</v>
       </c>
@@ -30376,7 +30375,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>440</v>
       </c>
@@ -30387,7 +30386,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>439</v>
       </c>
@@ -30398,7 +30397,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1596</v>
       </c>
@@ -30409,7 +30408,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>438</v>
       </c>
@@ -30420,7 +30419,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1116</v>
       </c>
@@ -30431,7 +30430,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1117</v>
       </c>
@@ -30442,7 +30441,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1598</v>
       </c>
@@ -30453,7 +30452,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1600</v>
       </c>
@@ -30464,7 +30463,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1602</v>
       </c>
@@ -30475,7 +30474,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1604</v>
       </c>
@@ -30486,7 +30485,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1606</v>
       </c>
@@ -30497,7 +30496,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1608</v>
       </c>
@@ -30508,7 +30507,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1610</v>
       </c>
@@ -30519,7 +30518,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1612</v>
       </c>
@@ -30547,7 +30546,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1615</v>
       </c>
@@ -30558,7 +30557,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1118</v>
       </c>
@@ -30569,7 +30568,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1616</v>
       </c>
@@ -30580,7 +30579,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1119</v>
       </c>
@@ -30591,7 +30590,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1120</v>
       </c>
@@ -30602,7 +30601,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1121</v>
       </c>
@@ -30630,7 +30629,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1122</v>
       </c>
@@ -30641,7 +30640,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1619</v>
       </c>
@@ -30652,7 +30651,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1123</v>
       </c>
@@ -30680,7 +30679,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1125</v>
       </c>
@@ -30742,7 +30741,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1127</v>
       </c>
@@ -30753,7 +30752,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1623</v>
       </c>
@@ -30764,7 +30763,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1128</v>
       </c>
@@ -30775,7 +30774,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1624</v>
       </c>
@@ -30786,7 +30785,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1625</v>
       </c>
@@ -30797,7 +30796,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1626</v>
       </c>
@@ -30808,7 +30807,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1129</v>
       </c>
@@ -30819,7 +30818,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1627</v>
       </c>
@@ -30830,7 +30829,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1130</v>
       </c>
@@ -30841,7 +30840,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1131</v>
       </c>
@@ -30852,7 +30851,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1132</v>
       </c>
@@ -30863,7 +30862,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1133</v>
       </c>
@@ -30874,7 +30873,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1134</v>
       </c>
@@ -30885,7 +30884,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1135</v>
       </c>
@@ -30896,7 +30895,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1136</v>
       </c>
@@ -30907,7 +30906,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1137</v>
       </c>
@@ -30918,7 +30917,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1138</v>
       </c>
@@ -30929,7 +30928,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1628</v>
       </c>
@@ -30940,7 +30939,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1629</v>
       </c>
@@ -30951,7 +30950,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1139</v>
       </c>
@@ -30962,7 +30961,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1140</v>
       </c>
@@ -30973,7 +30972,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1141</v>
       </c>
@@ -30984,7 +30983,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1142</v>
       </c>
@@ -31029,7 +31028,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1145</v>
       </c>
@@ -31040,7 +31039,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1631</v>
       </c>
@@ -31051,7 +31050,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1146</v>
       </c>
@@ -31096,7 +31095,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1148</v>
       </c>
@@ -31107,7 +31106,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1149</v>
       </c>
@@ -31118,7 +31117,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1150</v>
       </c>
@@ -31129,7 +31128,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1633</v>
       </c>
@@ -31140,7 +31139,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1151</v>
       </c>
@@ -31151,7 +31150,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1634</v>
       </c>
@@ -31162,7 +31161,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1152</v>
       </c>
@@ -31173,7 +31172,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1153</v>
       </c>
@@ -31184,7 +31183,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1154</v>
       </c>
@@ -31229,7 +31228,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1157</v>
       </c>
@@ -31240,7 +31239,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1158</v>
       </c>
@@ -31251,7 +31250,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1159</v>
       </c>
@@ -31262,7 +31261,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1160</v>
       </c>
@@ -31273,7 +31272,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1635</v>
       </c>
@@ -31284,7 +31283,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1161</v>
       </c>
@@ -31295,7 +31294,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1162</v>
       </c>
@@ -31306,7 +31305,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1163</v>
       </c>
@@ -31317,7 +31316,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1164</v>
       </c>
@@ -31328,7 +31327,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1165</v>
       </c>
@@ -31339,7 +31338,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1166</v>
       </c>
@@ -31350,7 +31349,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1636</v>
       </c>
@@ -31361,7 +31360,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1167</v>
       </c>
@@ -31389,7 +31388,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1637</v>
       </c>
@@ -31400,7 +31399,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1168</v>
       </c>
@@ -31411,7 +31410,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1638</v>
       </c>
@@ -31422,7 +31421,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1169</v>
       </c>
@@ -31433,7 +31432,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1639</v>
       </c>
@@ -31444,7 +31443,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>564</v>
       </c>
@@ -31455,7 +31454,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1170</v>
       </c>
@@ -31466,7 +31465,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1640</v>
       </c>
@@ -31477,7 +31476,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1171</v>
       </c>
@@ -31488,7 +31487,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1172</v>
       </c>
@@ -31516,7 +31515,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1173</v>
       </c>
@@ -31544,7 +31543,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1641</v>
       </c>
@@ -31555,7 +31554,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1175</v>
       </c>
@@ -31566,7 +31565,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1176</v>
       </c>
@@ -31577,7 +31576,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1177</v>
       </c>
@@ -31588,7 +31587,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>578</v>
       </c>
@@ -31599,7 +31598,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1642</v>
       </c>
@@ -31610,7 +31609,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>581</v>
       </c>
@@ -31621,7 +31620,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>582</v>
       </c>
@@ -31632,7 +31631,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>454</v>
       </c>
@@ -31640,7 +31639,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>585</v>
       </c>
@@ -31668,7 +31667,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1178</v>
       </c>
@@ -31679,7 +31678,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1179</v>
       </c>
@@ -31690,7 +31689,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1647</v>
       </c>
@@ -31701,7 +31700,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1180</v>
       </c>
@@ -31712,7 +31711,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1181</v>
       </c>
@@ -31723,7 +31722,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1648</v>
       </c>
@@ -31734,7 +31733,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1182</v>
       </c>
@@ -31779,7 +31778,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1185</v>
       </c>
@@ -31790,7 +31789,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1649</v>
       </c>
@@ -31818,7 +31817,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1187</v>
       </c>
@@ -31829,7 +31828,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1650</v>
       </c>
@@ -31840,7 +31839,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1188</v>
       </c>
@@ -31851,7 +31850,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1189</v>
       </c>
@@ -31862,7 +31861,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1651</v>
       </c>
@@ -31873,7 +31872,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1652</v>
       </c>
@@ -31884,7 +31883,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1190</v>
       </c>
@@ -31895,7 +31894,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1653</v>
       </c>
@@ -31906,7 +31905,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1191</v>
       </c>
@@ -31917,7 +31916,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1192</v>
       </c>
@@ -31928,7 +31927,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1193</v>
       </c>
@@ -31939,7 +31938,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1654</v>
       </c>
@@ -31950,7 +31949,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1655</v>
       </c>
@@ -31961,7 +31960,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1656</v>
       </c>
@@ -31972,7 +31971,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1657</v>
       </c>
@@ -31983,7 +31982,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1194</v>
       </c>
@@ -31994,7 +31993,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1658</v>
       </c>
@@ -32005,7 +32004,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1196</v>
       </c>
@@ -32016,7 +32015,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1195</v>
       </c>
@@ -32027,7 +32026,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1197</v>
       </c>
@@ -32038,7 +32037,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1198</v>
       </c>
@@ -32049,7 +32048,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1659</v>
       </c>
@@ -32060,7 +32059,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1199</v>
       </c>
@@ -32071,7 +32070,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1200</v>
       </c>
@@ -32082,7 +32081,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1660</v>
       </c>
@@ -32093,7 +32092,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1661</v>
       </c>
@@ -32104,7 +32103,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1201</v>
       </c>
@@ -32115,7 +32114,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1662</v>
       </c>
@@ -32126,7 +32125,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1663</v>
       </c>
@@ -32154,7 +32153,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1202</v>
       </c>
@@ -32165,7 +32164,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1665</v>
       </c>
@@ -32176,7 +32175,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1666</v>
       </c>
@@ -32187,7 +32186,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1203</v>
       </c>
@@ -32198,7 +32197,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1204</v>
       </c>
@@ -32209,7 +32208,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1205</v>
       </c>
@@ -32220,7 +32219,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1206</v>
       </c>
@@ -32231,7 +32230,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1207</v>
       </c>
@@ -32242,7 +32241,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1208</v>
       </c>
@@ -32253,7 +32252,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1209</v>
       </c>
@@ -32264,7 +32263,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1667</v>
       </c>
@@ -32309,7 +32308,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1669</v>
       </c>
@@ -32320,7 +32319,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1670</v>
       </c>
@@ -32331,7 +32330,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1211</v>
       </c>
@@ -32342,7 +32341,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1212</v>
       </c>
@@ -32353,7 +32352,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1213</v>
       </c>
@@ -32364,7 +32363,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1214</v>
       </c>
@@ -32375,7 +32374,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1671</v>
       </c>
@@ -32386,7 +32385,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1672</v>
       </c>
@@ -32400,7 +32399,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>646</v>
       </c>
@@ -32411,7 +32410,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1215</v>
       </c>
@@ -32422,7 +32421,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1674</v>
       </c>
@@ -32433,7 +32432,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1675</v>
       </c>
@@ -32444,7 +32443,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1216</v>
       </c>
@@ -32455,7 +32454,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1676</v>
       </c>
@@ -32466,7 +32465,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1217</v>
       </c>
@@ -32477,7 +32476,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1218</v>
       </c>
@@ -32488,7 +32487,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1219</v>
       </c>
@@ -32499,7 +32498,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1220</v>
       </c>
@@ -32510,7 +32509,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>1221</v>
       </c>
@@ -32521,7 +32520,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1222</v>
       </c>
@@ -32532,7 +32531,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>659</v>
       </c>
@@ -32543,7 +32542,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>661</v>
       </c>
@@ -32554,7 +32553,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1677</v>
       </c>
@@ -32565,7 +32564,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1678</v>
       </c>
@@ -32576,7 +32575,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1223</v>
       </c>
@@ -32587,7 +32586,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1224</v>
       </c>
@@ -32598,7 +32597,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1225</v>
       </c>
@@ -32609,7 +32608,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1226</v>
       </c>
@@ -32620,7 +32619,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1679</v>
       </c>
@@ -32631,7 +32630,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1681</v>
       </c>
@@ -32642,7 +32641,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1683</v>
       </c>
@@ -32653,7 +32652,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1685</v>
       </c>
@@ -32664,7 +32663,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1687</v>
       </c>
@@ -32675,7 +32674,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1689</v>
       </c>
@@ -32686,7 +32685,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1691</v>
       </c>
@@ -32697,7 +32696,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1693</v>
       </c>
@@ -32708,7 +32707,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1695</v>
       </c>
@@ -32719,7 +32718,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1227</v>
       </c>
@@ -32730,7 +32729,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1696</v>
       </c>
@@ -32741,7 +32740,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1697</v>
       </c>
@@ -32769,7 +32768,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1698</v>
       </c>
@@ -32780,7 +32779,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1229</v>
       </c>
@@ -32825,7 +32824,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>678</v>
       </c>
@@ -32836,7 +32835,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1232</v>
       </c>
@@ -32847,7 +32846,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1699</v>
       </c>
@@ -32858,7 +32857,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1233</v>
       </c>
@@ -32869,7 +32868,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1234</v>
       </c>
@@ -32880,7 +32879,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1700</v>
       </c>
@@ -32891,7 +32890,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1235</v>
       </c>
@@ -32902,7 +32901,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1236</v>
       </c>
@@ -32913,7 +32912,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1701</v>
       </c>
@@ -32924,7 +32923,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1237</v>
       </c>
@@ -32935,7 +32934,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1702</v>
       </c>
@@ -32946,7 +32945,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1238</v>
       </c>
@@ -32957,7 +32956,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1703</v>
       </c>
@@ -32968,7 +32967,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1704</v>
       </c>
@@ -32979,7 +32978,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>1705</v>
       </c>
@@ -32990,7 +32989,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>1239</v>
       </c>
@@ -33001,7 +33000,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1240</v>
       </c>
@@ -33012,7 +33011,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>1706</v>
       </c>
@@ -33023,7 +33022,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>1241</v>
       </c>
@@ -33034,7 +33033,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>1242</v>
       </c>
@@ -33045,7 +33044,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>489</v>
       </c>
@@ -33056,7 +33055,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>474</v>
       </c>
@@ -33067,7 +33066,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>476</v>
       </c>
@@ -33078,7 +33077,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>1707</v>
       </c>
@@ -33089,7 +33088,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>1708</v>
       </c>
@@ -33100,7 +33099,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>1709</v>
       </c>
@@ -33111,7 +33110,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>1710</v>
       </c>
@@ -33122,7 +33121,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>1711</v>
       </c>
@@ -33133,7 +33132,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>1712</v>
       </c>
@@ -33144,7 +33143,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>1713</v>
       </c>
@@ -33155,7 +33154,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>1714</v>
       </c>
@@ -33166,7 +33165,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>1715</v>
       </c>
@@ -33177,7 +33176,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>1716</v>
       </c>
@@ -33188,7 +33187,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>1717</v>
       </c>
@@ -33199,7 +33198,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>1718</v>
       </c>
@@ -33210,7 +33209,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>1719</v>
       </c>
@@ -33221,7 +33220,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>1720</v>
       </c>
@@ -33232,7 +33231,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>1721</v>
       </c>
@@ -33243,7 +33242,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>1722</v>
       </c>
@@ -33254,7 +33253,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>1723</v>
       </c>
@@ -33265,7 +33264,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>1724</v>
       </c>
@@ -33276,7 +33275,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>1243</v>
       </c>
@@ -33287,7 +33286,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>1725</v>
       </c>
@@ -33298,7 +33297,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>1726</v>
       </c>
@@ -33309,7 +33308,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>1727</v>
       </c>
@@ -33320,7 +33319,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>469</v>
       </c>
@@ -33331,7 +33330,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>1728</v>
       </c>
@@ -33342,7 +33341,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>1729</v>
       </c>
@@ -33353,7 +33352,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>1730</v>
       </c>
@@ -33364,7 +33363,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>465</v>
       </c>
@@ -33375,7 +33374,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>1731</v>
       </c>
@@ -33386,7 +33385,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>1732</v>
       </c>
@@ -33397,7 +33396,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>461</v>
       </c>
@@ -33408,7 +33407,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>1733</v>
       </c>
@@ -33419,7 +33418,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>1244</v>
       </c>
@@ -33430,7 +33429,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>1245</v>
       </c>
@@ -33441,7 +33440,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>456</v>
       </c>
@@ -33452,7 +33451,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>1246</v>
       </c>
@@ -33463,7 +33462,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>1735</v>
       </c>
@@ -33474,7 +33473,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>1737</v>
       </c>
@@ -33485,7 +33484,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>1739</v>
       </c>
@@ -33496,7 +33495,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>1741</v>
       </c>
@@ -33507,7 +33506,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>1743</v>
       </c>
@@ -33518,7 +33517,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>1745</v>
       </c>
@@ -33529,7 +33528,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>1247</v>
       </c>
@@ -33540,7 +33539,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>1248</v>
       </c>
@@ -33551,7 +33550,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>1749</v>
       </c>
@@ -33562,7 +33561,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>1751</v>
       </c>
@@ -33573,7 +33572,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>1249</v>
       </c>
@@ -33584,7 +33583,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>1754</v>
       </c>
@@ -33595,7 +33594,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>1250</v>
       </c>
@@ -33606,7 +33605,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>1757</v>
       </c>
@@ -33617,7 +33616,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>1251</v>
       </c>
@@ -33628,7 +33627,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>1760</v>
       </c>
@@ -33639,7 +33638,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>1762</v>
       </c>
@@ -33650,7 +33649,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>1252</v>
       </c>
@@ -33661,7 +33660,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>1765</v>
       </c>
@@ -33672,7 +33671,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>1767</v>
       </c>
@@ -33683,7 +33682,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>1254</v>
       </c>
@@ -33694,7 +33693,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>1255</v>
       </c>
@@ -33705,7 +33704,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>1256</v>
       </c>
@@ -33716,7 +33715,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>700</v>
       </c>
@@ -33727,7 +33726,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>702</v>
       </c>
@@ -33738,7 +33737,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>1257</v>
       </c>
@@ -33749,7 +33748,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>1258</v>
       </c>
@@ -33760,7 +33759,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>1771</v>
       </c>
@@ -33771,7 +33770,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>1772</v>
       </c>
@@ -33782,7 +33781,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>1259</v>
       </c>
@@ -33793,7 +33792,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>1260</v>
       </c>
@@ -33804,7 +33803,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>1261</v>
       </c>
@@ -33815,7 +33814,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>1773</v>
       </c>
@@ -33826,7 +33825,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>1262</v>
       </c>
@@ -33837,7 +33836,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>1774</v>
       </c>
@@ -33848,7 +33847,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>1263</v>
       </c>
@@ -33859,7 +33858,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>1264</v>
       </c>
@@ -33870,7 +33869,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>1775</v>
       </c>
@@ -33881,7 +33880,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>1265</v>
       </c>
@@ -33892,7 +33891,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>1266</v>
       </c>
@@ -33903,7 +33902,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>1776</v>
       </c>
@@ -33914,7 +33913,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>1777</v>
       </c>
@@ -33925,7 +33924,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>1778</v>
       </c>
@@ -33936,7 +33935,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>1779</v>
       </c>
@@ -33947,7 +33946,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>1780</v>
       </c>
@@ -33975,7 +33974,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>1782</v>
       </c>
@@ -33986,7 +33985,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>1783</v>
       </c>
@@ -33997,7 +33996,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>1784</v>
       </c>
@@ -34008,7 +34007,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>1785</v>
       </c>
@@ -34019,7 +34018,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>1267</v>
       </c>
@@ -34030,7 +34029,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>1268</v>
       </c>
@@ -34041,7 +34040,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>1786</v>
       </c>
@@ -34052,7 +34051,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>1269</v>
       </c>
@@ -34063,7 +34062,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>1270</v>
       </c>
@@ -34074,7 +34073,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>1787</v>
       </c>
@@ -34085,7 +34084,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>1788</v>
       </c>
@@ -34096,7 +34095,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>1271</v>
       </c>
@@ -34107,7 +34106,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>737</v>
       </c>
@@ -34118,7 +34117,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>1272</v>
       </c>
@@ -34129,7 +34128,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>1273</v>
       </c>
@@ -34140,7 +34139,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>1789</v>
       </c>
@@ -34151,7 +34150,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>1790</v>
       </c>
@@ -34162,7 +34161,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>1274</v>
       </c>
@@ -34173,7 +34172,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>1275</v>
       </c>
@@ -34184,7 +34183,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>1276</v>
       </c>
@@ -34195,7 +34194,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>1277</v>
       </c>
@@ -34206,7 +34205,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>1278</v>
       </c>
@@ -34217,7 +34216,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>1279</v>
       </c>
@@ -34228,7 +34227,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>1791</v>
       </c>
@@ -34239,7 +34238,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>1792</v>
       </c>
@@ -34267,7 +34266,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>1280</v>
       </c>
@@ -34278,7 +34277,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>1281</v>
       </c>
@@ -34289,7 +34288,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>1282</v>
       </c>
@@ -34300,7 +34299,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>1283</v>
       </c>
@@ -34311,7 +34310,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>1284</v>
       </c>
@@ -34322,7 +34321,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>1794</v>
       </c>
@@ -34333,7 +34332,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>1285</v>
       </c>
@@ -34344,7 +34343,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>1286</v>
       </c>
@@ -34355,7 +34354,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>1287</v>
       </c>
@@ -34366,7 +34365,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>1288</v>
       </c>
@@ -34377,7 +34376,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>1795</v>
       </c>
@@ -34388,7 +34387,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>1289</v>
       </c>
@@ -34399,7 +34398,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>1290</v>
       </c>
@@ -34410,7 +34409,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>1291</v>
       </c>
@@ -34421,7 +34420,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>1292</v>
       </c>
@@ -34432,7 +34431,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>1293</v>
       </c>
@@ -34443,7 +34442,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>1294</v>
       </c>
@@ -34454,7 +34453,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>1796</v>
       </c>
@@ -34465,7 +34464,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>1295</v>
       </c>
@@ -34476,7 +34475,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>1296</v>
       </c>
@@ -34487,7 +34486,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>1797</v>
       </c>
@@ -34498,7 +34497,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>1297</v>
       </c>
@@ -34509,7 +34508,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>1298</v>
       </c>
@@ -34520,7 +34519,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>1299</v>
       </c>
@@ -34548,7 +34547,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>1799</v>
       </c>
@@ -34559,7 +34558,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>1300</v>
       </c>
@@ -34570,7 +34569,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>1301</v>
       </c>
@@ -34581,7 +34580,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>1800</v>
       </c>
@@ -34592,7 +34591,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>1302</v>
       </c>
@@ -34603,7 +34602,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>1303</v>
       </c>
@@ -34614,7 +34613,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>1801</v>
       </c>
@@ -34625,7 +34624,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>1802</v>
       </c>
@@ -34636,7 +34635,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>1803</v>
       </c>
@@ -34647,7 +34646,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>1304</v>
       </c>
@@ -34658,7 +34657,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>1804</v>
       </c>
@@ -34669,7 +34668,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>1305</v>
       </c>
@@ -34680,7 +34679,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>1306</v>
       </c>
@@ -34691,7 +34690,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>1805</v>
       </c>
@@ -34702,7 +34701,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>1806</v>
       </c>
@@ -34713,7 +34712,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>1307</v>
       </c>
@@ -34724,7 +34723,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>1308</v>
       </c>
@@ -34735,7 +34734,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>1807</v>
       </c>
@@ -34746,7 +34745,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="650" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>1309</v>
       </c>
@@ -34757,7 +34756,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="651" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>1310</v>
       </c>
@@ -34768,7 +34767,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>1311</v>
       </c>
@@ -34779,7 +34778,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>1312</v>
       </c>
@@ -34790,7 +34789,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="654" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>1313</v>
       </c>
@@ -34801,7 +34800,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>799</v>
       </c>
@@ -34812,7 +34811,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>1314</v>
       </c>
@@ -34823,7 +34822,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>1808</v>
       </c>
@@ -34851,7 +34850,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>1810</v>
       </c>
@@ -34862,7 +34861,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>1811</v>
       </c>
@@ -34873,7 +34872,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>1812</v>
       </c>
@@ -34884,7 +34883,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>1813</v>
       </c>
@@ -34895,7 +34894,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>1315</v>
       </c>
@@ -34906,7 +34905,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>1316</v>
       </c>
@@ -34917,7 +34916,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>1317</v>
       </c>
@@ -34928,7 +34927,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>1814</v>
       </c>
@@ -34939,7 +34938,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>1318</v>
       </c>
@@ -34950,7 +34949,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>1815</v>
       </c>
@@ -34961,7 +34960,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>1816</v>
       </c>
@@ -34989,7 +34988,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>1818</v>
       </c>
@@ -35000,7 +34999,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>1820</v>
       </c>
@@ -35011,7 +35010,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>1821</v>
       </c>
@@ -35022,7 +35021,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="674" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>1823</v>
       </c>
@@ -35033,7 +35032,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>1824</v>
       </c>
@@ -35044,7 +35043,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>1319</v>
       </c>
@@ -35055,7 +35054,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>1320</v>
       </c>
@@ -35066,7 +35065,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>820</v>
       </c>
@@ -35077,7 +35076,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>1321</v>
       </c>
@@ -35088,7 +35087,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>1825</v>
       </c>
@@ -35099,7 +35098,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>1826</v>
       </c>
@@ -35110,7 +35109,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>1827</v>
       </c>
@@ -35121,7 +35120,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>1322</v>
       </c>
@@ -35132,7 +35131,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>1323</v>
       </c>
@@ -35143,7 +35142,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>1324</v>
       </c>
@@ -35154,7 +35153,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>1325</v>
       </c>
@@ -35165,7 +35164,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>1326</v>
       </c>
@@ -35176,7 +35175,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>1828</v>
       </c>
@@ -35187,7 +35186,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>1829</v>
       </c>
@@ -35198,7 +35197,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>1830</v>
       </c>
@@ -35209,7 +35208,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>1327</v>
       </c>
@@ -35220,7 +35219,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>1328</v>
       </c>
@@ -35231,7 +35230,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>1329</v>
       </c>
@@ -35242,7 +35241,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>1330</v>
       </c>
@@ -35253,7 +35252,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>1831</v>
       </c>
@@ -35264,7 +35263,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="696" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>1331</v>
       </c>
@@ -35275,7 +35274,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>1332</v>
       </c>
@@ -35286,7 +35285,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>1333</v>
       </c>
@@ -35297,7 +35296,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>1334</v>
       </c>
@@ -35308,7 +35307,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>1335</v>
       </c>
@@ -35319,7 +35318,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>1832</v>
       </c>
@@ -35330,7 +35329,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>1336</v>
       </c>
@@ -35341,7 +35340,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>1337</v>
       </c>
@@ -35352,7 +35351,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>1338</v>
       </c>
@@ -35363,7 +35362,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1339</v>
       </c>
@@ -35374,7 +35373,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>1340</v>
       </c>
@@ -35385,7 +35384,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>1833</v>
       </c>
@@ -35396,7 +35395,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>1834</v>
       </c>
@@ -35407,7 +35406,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>1341</v>
       </c>
@@ -35418,7 +35417,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>1342</v>
       </c>
@@ -35429,7 +35428,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>1343</v>
       </c>
@@ -35440,7 +35439,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>1344</v>
       </c>
@@ -35451,7 +35450,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>1345</v>
       </c>
@@ -35462,7 +35461,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>1346</v>
       </c>
@@ -35473,7 +35472,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>1347</v>
       </c>
@@ -35484,7 +35483,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>1348</v>
       </c>
@@ -35495,7 +35494,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>1349</v>
       </c>
@@ -35506,7 +35505,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>1350</v>
       </c>
@@ -35517,7 +35516,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>1351</v>
       </c>
@@ -35528,7 +35527,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>1835</v>
       </c>
@@ -35539,7 +35538,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>1352</v>
       </c>
@@ -35550,7 +35549,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>1353</v>
       </c>
@@ -35561,7 +35560,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>1354</v>
       </c>
@@ -35572,7 +35571,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>1355</v>
       </c>
@@ -35583,7 +35582,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>1356</v>
       </c>
@@ -35594,7 +35593,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>1836</v>
       </c>
@@ -35605,7 +35604,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>1357</v>
       </c>
@@ -35616,7 +35615,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>1358</v>
       </c>
@@ -35627,7 +35626,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>1359</v>
       </c>
@@ -35638,7 +35637,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="730" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>1360</v>
       </c>
@@ -35649,7 +35648,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>1361</v>
       </c>
@@ -35660,7 +35659,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>1362</v>
       </c>
@@ -35671,7 +35670,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>1837</v>
       </c>
@@ -35682,7 +35681,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>1838</v>
       </c>
@@ -35693,7 +35692,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>1363</v>
       </c>
@@ -35704,7 +35703,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>1364</v>
       </c>
@@ -35715,7 +35714,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>1365</v>
       </c>
@@ -35726,7 +35725,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>1839</v>
       </c>
@@ -35737,7 +35736,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>1366</v>
       </c>
@@ -35748,7 +35747,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>1367</v>
       </c>
@@ -35759,7 +35758,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>1368</v>
       </c>
@@ -35770,7 +35769,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>1369</v>
       </c>
@@ -35781,7 +35780,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>1370</v>
       </c>
@@ -35792,7 +35791,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>1371</v>
       </c>
@@ -35803,7 +35802,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>1840</v>
       </c>
@@ -35814,7 +35813,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>1372</v>
       </c>
@@ -35825,7 +35824,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>1373</v>
       </c>
@@ -35836,7 +35835,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>1841</v>
       </c>
@@ -35847,7 +35846,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>1374</v>
       </c>
@@ -35858,7 +35857,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>1375</v>
       </c>
@@ -35869,7 +35868,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>1376</v>
       </c>
@@ -35880,7 +35879,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>1842</v>
       </c>
@@ -35891,7 +35890,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>1377</v>
       </c>
@@ -35902,7 +35901,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>1378</v>
       </c>
@@ -35913,7 +35912,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>1843</v>
       </c>
@@ -35924,7 +35923,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>1379</v>
       </c>
@@ -35935,7 +35934,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>1380</v>
       </c>
@@ -35946,7 +35945,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>1844</v>
       </c>
@@ -35957,7 +35956,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>1381</v>
       </c>
@@ -35968,7 +35967,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>1845</v>
       </c>
@@ -35979,7 +35978,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>1382</v>
       </c>
@@ -35990,7 +35989,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>1383</v>
       </c>
@@ -36001,7 +36000,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>1384</v>
       </c>
@@ -36012,7 +36011,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>1385</v>
       </c>
@@ -36023,7 +36022,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>1386</v>
       </c>
@@ -36034,7 +36033,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>1387</v>
       </c>
@@ -36045,7 +36044,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>1388</v>
       </c>
@@ -36056,7 +36055,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>1389</v>
       </c>
@@ -36067,7 +36066,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>1390</v>
       </c>
@@ -36078,7 +36077,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>1391</v>
       </c>
@@ -36089,7 +36088,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="771" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>1846</v>
       </c>
@@ -36100,7 +36099,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="772" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>1392</v>
       </c>
@@ -36111,7 +36110,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="773" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>1393</v>
       </c>
@@ -36122,7 +36121,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="774" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>1847</v>
       </c>
@@ -36133,7 +36132,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="775" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>1848</v>
       </c>
@@ -36144,7 +36143,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="776" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>1394</v>
       </c>
@@ -36155,7 +36154,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>1395</v>
       </c>
@@ -36166,7 +36165,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>1396</v>
       </c>
@@ -36177,7 +36176,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="779" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>1397</v>
       </c>
@@ -36188,7 +36187,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="780" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>1398</v>
       </c>
@@ -36199,7 +36198,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="781" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>1399</v>
       </c>
@@ -36210,7 +36209,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>1400</v>
       </c>
@@ -36221,7 +36220,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="783" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>1401</v>
       </c>
@@ -36232,7 +36231,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="784" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>1402</v>
       </c>
@@ -36243,7 +36242,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="785" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>1403</v>
       </c>
@@ -36254,7 +36253,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>1404</v>
       </c>
@@ -36265,7 +36264,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>1405</v>
       </c>
@@ -36276,7 +36275,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>1406</v>
       </c>
@@ -36287,7 +36286,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>1407</v>
       </c>
@@ -36298,7 +36297,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="790" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>1408</v>
       </c>
@@ -36309,7 +36308,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="791" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>1409</v>
       </c>
@@ -36320,7 +36319,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="792" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>1410</v>
       </c>
@@ -36331,7 +36330,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="793" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>1411</v>
       </c>
@@ -36342,7 +36341,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="794" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>1412</v>
       </c>
@@ -36353,7 +36352,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="795" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>1413</v>
       </c>
@@ -36364,7 +36363,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="796" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>1414</v>
       </c>
@@ -36375,7 +36374,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="797" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>1415</v>
       </c>
@@ -36386,7 +36385,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="798" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>1849</v>
       </c>
@@ -36397,7 +36396,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="799" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>1850</v>
       </c>
@@ -36408,7 +36407,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="800" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>1416</v>
       </c>
@@ -36419,7 +36418,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="801" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>1417</v>
       </c>
@@ -36430,7 +36429,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="802" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>1418</v>
       </c>
@@ -36441,7 +36440,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="803" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>1419</v>
       </c>
@@ -36452,7 +36451,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>1420</v>
       </c>
@@ -36463,7 +36462,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="805" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>1421</v>
       </c>
@@ -36474,7 +36473,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>1422</v>
       </c>
@@ -36485,7 +36484,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="807" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>1853</v>
       </c>
@@ -36496,7 +36495,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="808" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>1855</v>
       </c>
@@ -36507,7 +36506,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>1423</v>
       </c>
@@ -36518,7 +36517,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="810" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>1424</v>
       </c>
@@ -36529,7 +36528,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="811" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>1425</v>
       </c>
@@ -36540,7 +36539,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>1859</v>
       </c>
@@ -36551,7 +36550,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>1861</v>
       </c>
@@ -36562,7 +36561,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="814" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>1426</v>
       </c>
@@ -36573,7 +36572,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="815" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>1863</v>
       </c>
@@ -36584,7 +36583,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="816" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>1864</v>
       </c>
@@ -36595,7 +36594,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>1427</v>
       </c>
@@ -36606,7 +36605,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="818" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>1428</v>
       </c>
@@ -36617,7 +36616,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="819" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>1865</v>
       </c>
@@ -36628,7 +36627,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="820" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>1429</v>
       </c>
@@ -36639,7 +36638,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>1866</v>
       </c>
@@ -36650,7 +36649,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="822" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>1867</v>
       </c>
@@ -36661,7 +36660,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="823" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>1868</v>
       </c>
@@ -36672,7 +36671,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>1430</v>
       </c>
@@ -36683,7 +36682,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="825" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>1869</v>
       </c>
@@ -36694,7 +36693,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>1431</v>
       </c>
@@ -36705,7 +36704,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="827" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>1432</v>
       </c>
@@ -36716,7 +36715,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="828" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>1433</v>
       </c>
@@ -36727,7 +36726,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="829" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>1434</v>
       </c>
@@ -36738,7 +36737,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="830" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>1435</v>
       </c>
@@ -36749,7 +36748,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="831" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>1436</v>
       </c>
@@ -36760,7 +36759,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="832" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>1870</v>
       </c>
@@ -36771,7 +36770,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="833" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>1437</v>
       </c>
@@ -36782,7 +36781,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="834" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>1438</v>
       </c>
@@ -36793,7 +36792,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="835" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>1439</v>
       </c>
@@ -36804,7 +36803,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="836" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>1440</v>
       </c>
@@ -36815,7 +36814,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="837" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>1871</v>
       </c>
@@ -36826,7 +36825,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="838" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>1872</v>
       </c>
@@ -36837,7 +36836,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="839" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>1873</v>
       </c>
@@ -36848,7 +36847,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="840" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>1441</v>
       </c>
@@ -36859,7 +36858,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="841" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>1874</v>
       </c>
@@ -36870,7 +36869,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>972</v>
       </c>
@@ -36898,7 +36897,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="844" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>1876</v>
       </c>
@@ -36909,7 +36908,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="845" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>1442</v>
       </c>
@@ -36920,7 +36919,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>1877</v>
       </c>
@@ -36931,7 +36930,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="847" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>1878</v>
       </c>
@@ -36993,7 +36992,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="851" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>1445</v>
       </c>
@@ -37004,7 +37003,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="852" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>1446</v>
       </c>
@@ -37015,7 +37014,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="853" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>1447</v>
       </c>
@@ -37026,7 +37025,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="854" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>1880</v>
       </c>
@@ -37037,7 +37036,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="855" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>1881</v>
       </c>
@@ -37048,7 +37047,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="856" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>1882</v>
       </c>
@@ -37059,7 +37058,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="857" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>1448</v>
       </c>
@@ -37070,7 +37069,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="858" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>1449</v>
       </c>
@@ -37081,7 +37080,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="859" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>1883</v>
       </c>
@@ -37092,7 +37091,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="860" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>1884</v>
       </c>
@@ -37103,7 +37102,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="861" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>1885</v>
       </c>
@@ -37114,7 +37113,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="862" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>1886</v>
       </c>
@@ -37125,7 +37124,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="863" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>1450</v>
       </c>
@@ -37136,7 +37135,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="864" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>1887</v>
       </c>
@@ -37147,7 +37146,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="865" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>1888</v>
       </c>
@@ -37192,7 +37191,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="868" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>1452</v>
       </c>
@@ -37203,7 +37202,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="869" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>1890</v>
       </c>
@@ -37214,7 +37213,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>1001</v>
       </c>
@@ -37225,7 +37224,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="871" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>1453</v>
       </c>
@@ -37236,7 +37235,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="872" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>1454</v>
       </c>
@@ -37247,7 +37246,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="873" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>1891</v>
       </c>
@@ -37258,7 +37257,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="874" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>1455</v>
       </c>
@@ -37269,7 +37268,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="875" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>1456</v>
       </c>
@@ -37280,7 +37279,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="876" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>1893</v>
       </c>
@@ -37291,7 +37290,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="877" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>1457</v>
       </c>
@@ -37302,7 +37301,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="878" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>1458</v>
       </c>
@@ -37313,7 +37312,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="879" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>1459</v>
       </c>
@@ -37324,7 +37323,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="880" spans="1:5" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>1460</v>
       </c>
@@ -37335,7 +37334,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>1894</v>
       </c>
@@ -37346,7 +37345,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>1895</v>
       </c>
@@ -37357,7 +37356,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>1461</v>
       </c>
@@ -37368,7 +37367,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>1462</v>
       </c>
@@ -37379,7 +37378,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="885" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>1463</v>
       </c>
@@ -37390,7 +37389,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>1896</v>
       </c>
@@ -37401,7 +37400,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="887" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>1897</v>
       </c>
@@ -37412,7 +37411,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>1019</v>
       </c>
@@ -37423,7 +37422,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>1021</v>
       </c>
@@ -37434,7 +37433,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="890" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>1898</v>
       </c>
@@ -37445,7 +37444,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="891" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>1464</v>
       </c>
@@ -37456,7 +37455,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>1465</v>
       </c>
@@ -37467,7 +37466,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>1025</v>
       </c>
@@ -37478,7 +37477,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="894" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>1466</v>
       </c>
@@ -37489,7 +37488,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>1899</v>
       </c>
@@ -37500,7 +37499,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="896" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>1467</v>
       </c>
@@ -37511,7 +37510,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>1468</v>
       </c>
@@ -37522,7 +37521,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>1469</v>
       </c>
@@ -37533,7 +37532,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>1901</v>
       </c>
@@ -37544,7 +37543,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>1903</v>
       </c>
@@ -37555,7 +37554,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>1904</v>
       </c>
@@ -37566,7 +37565,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>1905</v>
       </c>
@@ -37577,7 +37576,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>1470</v>
       </c>
@@ -37588,7 +37587,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>1471</v>
       </c>
@@ -37599,7 +37598,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>1906</v>
       </c>
@@ -37610,7 +37609,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="906" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>1472</v>
       </c>
@@ -37621,7 +37620,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>1473</v>
       </c>
@@ -37632,7 +37631,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>1474</v>
       </c>
@@ -37643,7 +37642,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>1475</v>
       </c>
@@ -37654,7 +37653,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>1476</v>
       </c>
@@ -37665,7 +37664,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>1477</v>
       </c>
@@ -37676,7 +37675,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="912" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>1478</v>
       </c>
@@ -37687,7 +37686,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>1479</v>
       </c>
@@ -37698,7 +37697,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="914" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>1480</v>
       </c>
@@ -37709,7 +37708,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>1481</v>
       </c>
@@ -37720,7 +37719,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>1911</v>
       </c>
@@ -37731,7 +37730,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="917" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>1482</v>
       </c>
@@ -37742,7 +37741,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>1483</v>
       </c>
@@ -37753,7 +37752,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>1484</v>
       </c>
@@ -37764,7 +37763,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>1485</v>
       </c>
@@ -37775,7 +37774,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>1913</v>
       </c>
@@ -37786,7 +37785,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="922" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>1048</v>
       </c>
@@ -37797,7 +37796,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>1486</v>
       </c>
@@ -37808,7 +37807,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="924" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>1487</v>
       </c>
@@ -37819,7 +37818,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="925" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>1488</v>
       </c>
@@ -37830,7 +37829,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>1489</v>
       </c>
@@ -37841,7 +37840,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>1915</v>
       </c>
@@ -37852,7 +37851,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>1490</v>
       </c>
@@ -37863,7 +37862,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="929" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>1916</v>
       </c>
@@ -37874,7 +37873,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="930" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>1491</v>
       </c>
@@ -37885,7 +37884,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="931" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>1492</v>
       </c>
@@ -37896,7 +37895,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="932" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>1493</v>
       </c>
@@ -37907,7 +37906,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="933" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1060</v>
       </c>
@@ -37918,7 +37917,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>1494</v>
       </c>
@@ -37929,7 +37928,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="935" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1063</v>
       </c>
@@ -37940,7 +37939,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="936" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1065</v>
       </c>
@@ -37951,7 +37950,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="937" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>1495</v>
       </c>
@@ -37962,7 +37961,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="938" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>1496</v>
       </c>
@@ -37973,7 +37972,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>1497</v>
       </c>
@@ -37984,7 +37983,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="940" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>1498</v>
       </c>
@@ -37995,7 +37994,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>1917</v>
       </c>
@@ -38006,7 +38005,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="942" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>1499</v>
       </c>
@@ -38017,7 +38016,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="943" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>1500</v>
       </c>
@@ -38028,7 +38027,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="944" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>1501</v>
       </c>
@@ -38039,7 +38038,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="945" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>1502</v>
       </c>
@@ -38050,7 +38049,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="946" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>1503</v>
       </c>
@@ -38061,7 +38060,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="947" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>1918</v>
       </c>
@@ -38072,7 +38071,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="948" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>1919</v>
       </c>
@@ -38083,7 +38082,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="949" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>1504</v>
       </c>
@@ -38094,7 +38093,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="950" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>1920</v>
       </c>
@@ -38105,7 +38104,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="951" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>1505</v>
       </c>
@@ -38116,7 +38115,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="952" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>1506</v>
       </c>
@@ -38127,7 +38126,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="953" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>1507</v>
       </c>
@@ -38138,7 +38137,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="954" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>1921</v>
       </c>
@@ -38149,7 +38148,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="955" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>1508</v>
       </c>
@@ -38160,7 +38159,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>1922</v>
       </c>
@@ -38171,7 +38170,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="957" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>1923</v>
       </c>
@@ -38182,7 +38181,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="958" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>1509</v>
       </c>
@@ -38193,7 +38192,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="959" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>1510</v>
       </c>
@@ -38204,7 +38203,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="960" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>1924</v>
       </c>
@@ -38215,7 +38214,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="961" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>1511</v>
       </c>
@@ -38226,7 +38225,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="962" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>1512</v>
       </c>
@@ -38237,7 +38236,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="963" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>1513</v>
       </c>
@@ -38248,7 +38247,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="964" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A964" t="s">
         <v>1926</v>
       </c>
@@ -38259,7 +38258,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="965" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A965" t="s">
         <v>1927</v>
       </c>
@@ -38270,7 +38269,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="966" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A966" t="s">
         <v>1928</v>
       </c>
@@ -38281,7 +38280,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="967" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
         <v>1929</v>
       </c>
@@ -38292,7 +38291,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="968" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
         <v>1930</v>
       </c>
@@ -38303,7 +38302,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="969" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A969" t="s">
         <v>1514</v>
       </c>
@@ -38314,7 +38313,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="970" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
         <v>1515</v>
       </c>
@@ -38325,7 +38324,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="971" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
         <v>1516</v>
       </c>
@@ -38336,7 +38335,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="972" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
         <v>1931</v>
       </c>
@@ -38347,7 +38346,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="973" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
         <v>1517</v>
       </c>
@@ -38358,7 +38357,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>1098</v>
       </c>
@@ -38369,7 +38368,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="975" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>1100</v>
       </c>
@@ -38380,7 +38379,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>1102</v>
       </c>
@@ -38391,7 +38390,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="977" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>1104</v>
       </c>
@@ -38402,7 +38401,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="978" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
         <v>1106</v>
       </c>
@@ -38413,7 +38412,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="979" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
         <v>1933</v>
       </c>
@@ -38424,7 +38423,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="980" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
         <v>1518</v>
       </c>
@@ -38435,7 +38434,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="981" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>1109</v>
       </c>
@@ -38446,7 +38445,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="982" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>1111</v>
       </c>
@@ -38457,7 +38456,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="983" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
         <v>1519</v>
       </c>
@@ -38468,7 +38467,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="984" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
         <v>1934</v>
       </c>
@@ -38479,7 +38478,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="985" spans="1:3" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
         <v>1935</v>
       </c>
@@ -38491,13 +38490,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E985" xr:uid="{A1CD05EA-F48C-4F54-9A38-533BF9BABA08}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E985" xr:uid="{A1CD05EA-F48C-4F54-9A38-533BF9BABA08}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Parameters--do not translate list--2023_ambiguous .xlsx
+++ b/Parameters--do not translate list--2023_ambiguous .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboros\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboros\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C69DC9A-D4CE-4930-8B9D-8E7E4D0C3E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A15098-3B23-400F-989D-29463AAFA19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{D5A22007-63F0-4073-B14E-DAC0B9B386F1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="2871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="2872">
   <si>
     <t xml:space="preserve">A </t>
   </si>
@@ -26827,6 +26827,9 @@
   </si>
   <si>
     <t>commentariu F2</t>
+  </si>
+  <si>
+    <t>comentariu local ___F3</t>
   </si>
 </sst>
 </file>
@@ -27296,7 +27299,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27306,6 +27309,7 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -27351,6 +27355,9 @@
       </c>
       <c r="C3" t="s">
         <v>1938</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2871</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">

--- a/Parameters--do not translate list--2023_ambiguous .xlsx
+++ b/Parameters--do not translate list--2023_ambiguous .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboros\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A15098-3B23-400F-989D-29463AAFA19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24B791-C8A9-4524-A444-7F8F4E9C56D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{D5A22007-63F0-4073-B14E-DAC0B9B386F1}"/>
+    <workbookView xWindow="34830" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{D5A22007-63F0-4073-B14E-DAC0B9B386F1}"/>
   </bookViews>
   <sheets>
     <sheet name="do not translate list" sheetId="1" r:id="rId1"/>
@@ -26829,7 +26829,7 @@
     <t>commentariu F2</t>
   </si>
   <si>
-    <t>comentariu local ___F3</t>
+    <t>comentariu local _27.10</t>
   </si>
 </sst>
 </file>
@@ -27297,7 +27297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD05EA-F48C-4F54-9A38-533BF9BABA08}">
   <dimension ref="A1:F985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>

--- a/Parameters--do not translate list--2023_ambiguous .xlsx
+++ b/Parameters--do not translate list--2023_ambiguous .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboros\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24B791-C8A9-4524-A444-7F8F4E9C56D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9AC346-6EAE-4FC4-9D32-06DD6EC64DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34830" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{D5A22007-63F0-4073-B14E-DAC0B9B386F1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="2872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="2873">
   <si>
     <t xml:space="preserve">A </t>
   </si>
@@ -26830,6 +26830,9 @@
   </si>
   <si>
     <t>comentariu local _27.10</t>
+  </si>
+  <si>
+    <t>alt comentariu 27.10 ora 15.31</t>
   </si>
 </sst>
 </file>
@@ -27299,7 +27302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27376,6 +27379,9 @@
       <c r="E4" t="s">
         <v>2850</v>
       </c>
+      <c r="F4" t="s">
+        <v>2872</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">

--- a/Parameters--do not translate list--2023_ambiguous .xlsx
+++ b/Parameters--do not translate list--2023_ambiguous .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mboros\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9AC346-6EAE-4FC4-9D32-06DD6EC64DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B3701F-FEF5-4C06-9FDD-71BC441B09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34830" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{D5A22007-63F0-4073-B14E-DAC0B9B386F1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="2873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="2872">
   <si>
     <t xml:space="preserve">A </t>
   </si>
@@ -23981,9 +23981,6 @@
   </si>
   <si>
     <t>AVS</t>
-  </si>
-  <si>
-    <t>Avs</t>
   </si>
   <si>
     <t>bfs</t>
@@ -27302,7 +27299,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27323,13 +27320,13 @@
         <v>1937</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2866</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2860</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2867</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -27343,10 +27340,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="F2" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -27360,7 +27357,7 @@
         <v>1938</v>
       </c>
       <c r="F3" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -27374,13 +27371,13 @@
         <v>1939</v>
       </c>
       <c r="D4" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E4" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="F4" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -27394,10 +27391,10 @@
         <v>1940</v>
       </c>
       <c r="D5" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E5" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -27440,9 +27437,6 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>1944</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -27474,7 +27468,7 @@
         <v>1520</v>
       </c>
       <c r="C12" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -27485,13 +27479,13 @@
         <v>1521</v>
       </c>
       <c r="C13" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D13" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E13" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -27502,7 +27496,7 @@
         <v>1522</v>
       </c>
       <c r="C14" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -27513,13 +27507,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D15" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E15" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -27530,7 +27524,7 @@
         <v>1523</v>
       </c>
       <c r="C16" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27541,7 +27535,7 @@
         <v>1524</v>
       </c>
       <c r="C17" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27585,7 +27579,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27596,7 +27590,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27607,7 +27601,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27618,7 +27612,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27629,7 +27623,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27640,7 +27634,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -27662,7 +27656,7 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27673,7 +27667,7 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27684,7 +27678,7 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27695,7 +27689,7 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -27706,7 +27700,7 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27717,7 +27711,7 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27728,7 +27722,7 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27739,7 +27733,7 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27750,7 +27744,7 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27772,13 +27766,13 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D38" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E38" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27789,7 +27783,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27800,7 +27794,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27811,7 +27805,7 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27822,7 +27816,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27833,7 +27827,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27844,7 +27838,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27855,7 +27849,7 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27866,7 +27860,7 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27877,7 +27871,7 @@
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27888,7 +27882,7 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27899,13 +27893,13 @@
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D49" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E49" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27916,7 +27910,7 @@
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -27938,7 +27932,7 @@
         <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -27971,7 +27965,7 @@
         <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -27982,7 +27976,7 @@
         <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28004,7 +27998,7 @@
         <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -28015,7 +28009,7 @@
         <v>98</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -28026,7 +28020,7 @@
         <v>1538</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -28071,7 +28065,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28082,7 +28076,7 @@
         <v>107</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -28093,7 +28087,7 @@
         <v>105</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -28104,7 +28098,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28115,7 +28109,7 @@
         <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -28126,7 +28120,7 @@
         <v>110</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -28137,7 +28131,7 @@
         <v>111</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28148,7 +28142,7 @@
         <v>112</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28159,7 +28153,7 @@
         <v>113</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28170,7 +28164,7 @@
         <v>114</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28181,7 +28175,7 @@
         <v>115</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28192,7 +28186,7 @@
         <v>116</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28203,7 +28197,7 @@
         <v>117</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28214,7 +28208,7 @@
         <v>119</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -28225,7 +28219,7 @@
         <v>120</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -28236,7 +28230,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28247,7 +28241,7 @@
         <v>121</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -28291,7 +28285,7 @@
         <v>127</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -28302,7 +28296,7 @@
         <v>129</v>
       </c>
       <c r="C85" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28313,7 +28307,7 @@
         <v>130</v>
       </c>
       <c r="C86" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28324,7 +28318,7 @@
         <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28335,7 +28329,7 @@
         <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28346,7 +28340,7 @@
         <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28357,7 +28351,7 @@
         <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28368,7 +28362,7 @@
         <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28379,7 +28373,7 @@
         <v>136</v>
       </c>
       <c r="C92" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -28547,10 +28541,10 @@
         <v>172</v>
       </c>
       <c r="D107" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E107" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -28605,7 +28599,7 @@
         <v>1558</v>
       </c>
       <c r="C112" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28616,7 +28610,7 @@
         <v>1559</v>
       </c>
       <c r="C113" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28627,7 +28621,7 @@
         <v>182</v>
       </c>
       <c r="C114" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28638,7 +28632,7 @@
         <v>1561</v>
       </c>
       <c r="C115" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28649,7 +28643,7 @@
         <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28660,7 +28654,7 @@
         <v>1564</v>
       </c>
       <c r="C117" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -28682,7 +28676,7 @@
         <v>1565</v>
       </c>
       <c r="C119" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28693,7 +28687,7 @@
         <v>186</v>
       </c>
       <c r="C120" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28704,7 +28698,7 @@
         <v>1567</v>
       </c>
       <c r="C121" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28715,7 +28709,7 @@
         <v>187</v>
       </c>
       <c r="C122" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28726,7 +28720,7 @@
         <v>188</v>
       </c>
       <c r="C123" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28737,7 +28731,7 @@
         <v>189</v>
       </c>
       <c r="C124" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28748,7 +28742,7 @@
         <v>190</v>
       </c>
       <c r="C125" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28759,7 +28753,7 @@
         <v>191</v>
       </c>
       <c r="C126" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28770,7 +28764,7 @@
         <v>192</v>
       </c>
       <c r="C127" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -28781,7 +28775,7 @@
         <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -28817,10 +28811,10 @@
         <v>208</v>
       </c>
       <c r="D131" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E131" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28842,13 +28836,13 @@
         <v>211</v>
       </c>
       <c r="C133" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D133" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E133" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28859,13 +28853,13 @@
         <v>212</v>
       </c>
       <c r="C134" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D134" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E134" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28876,7 +28870,7 @@
         <v>213</v>
       </c>
       <c r="C135" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28887,7 +28881,7 @@
         <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28898,7 +28892,7 @@
         <v>215</v>
       </c>
       <c r="C137" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28909,7 +28903,7 @@
         <v>216</v>
       </c>
       <c r="C138" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28920,13 +28914,13 @@
         <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D139" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E139" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28937,13 +28931,13 @@
         <v>218</v>
       </c>
       <c r="C140" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D140" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E140" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28954,7 +28948,7 @@
         <v>219</v>
       </c>
       <c r="C141" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28965,7 +28959,7 @@
         <v>220</v>
       </c>
       <c r="C142" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -28979,7 +28973,7 @@
         <v>221</v>
       </c>
       <c r="D143" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -28990,7 +28984,7 @@
         <v>223</v>
       </c>
       <c r="C144" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29001,7 +28995,7 @@
         <v>224</v>
       </c>
       <c r="C145" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29012,7 +29006,7 @@
         <v>225</v>
       </c>
       <c r="C146" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29023,7 +29017,7 @@
         <v>226</v>
       </c>
       <c r="C147" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29034,7 +29028,7 @@
         <v>240</v>
       </c>
       <c r="C148" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29045,7 +29039,7 @@
         <v>241</v>
       </c>
       <c r="C149" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29056,7 +29050,7 @@
         <v>242</v>
       </c>
       <c r="C150" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29067,7 +29061,7 @@
         <v>243</v>
       </c>
       <c r="C151" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29078,7 +29072,7 @@
         <v>244</v>
       </c>
       <c r="C152" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29089,7 +29083,7 @@
         <v>245</v>
       </c>
       <c r="C153" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29100,7 +29094,7 @@
         <v>246</v>
       </c>
       <c r="C154" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29111,7 +29105,7 @@
         <v>247</v>
       </c>
       <c r="C155" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29122,7 +29116,7 @@
         <v>248</v>
       </c>
       <c r="C156" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29133,7 +29127,7 @@
         <v>249</v>
       </c>
       <c r="C157" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29144,7 +29138,7 @@
         <v>250</v>
       </c>
       <c r="C158" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29155,7 +29149,7 @@
         <v>251</v>
       </c>
       <c r="C159" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29166,7 +29160,7 @@
         <v>252</v>
       </c>
       <c r="C160" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29177,7 +29171,7 @@
         <v>253</v>
       </c>
       <c r="C161" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29188,7 +29182,7 @@
         <v>254</v>
       </c>
       <c r="C162" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29199,7 +29193,7 @@
         <v>255</v>
       </c>
       <c r="C163" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29210,7 +29204,7 @@
         <v>256</v>
       </c>
       <c r="C164" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29221,7 +29215,7 @@
         <v>269</v>
       </c>
       <c r="C165" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29232,7 +29226,7 @@
         <v>270</v>
       </c>
       <c r="C166" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -29265,7 +29259,7 @@
         <v>1579</v>
       </c>
       <c r="C169" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -29276,7 +29270,7 @@
         <v>1580</v>
       </c>
       <c r="C170" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29287,7 +29281,7 @@
         <v>275</v>
       </c>
       <c r="C171" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29298,7 +29292,7 @@
         <v>276</v>
       </c>
       <c r="C172" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29309,7 +29303,7 @@
         <v>277</v>
       </c>
       <c r="C173" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29320,7 +29314,7 @@
         <v>278</v>
       </c>
       <c r="C174" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29331,7 +29325,7 @@
         <v>279</v>
       </c>
       <c r="C175" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29342,7 +29336,7 @@
         <v>280</v>
       </c>
       <c r="C176" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29353,7 +29347,7 @@
         <v>281</v>
       </c>
       <c r="C177" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29364,7 +29358,7 @@
         <v>282</v>
       </c>
       <c r="C178" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29375,7 +29369,7 @@
         <v>283</v>
       </c>
       <c r="C179" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29386,7 +29380,7 @@
         <v>284</v>
       </c>
       <c r="C180" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29397,7 +29391,7 @@
         <v>292</v>
       </c>
       <c r="C181" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29408,7 +29402,7 @@
         <v>293</v>
       </c>
       <c r="C182" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29419,7 +29413,7 @@
         <v>294</v>
       </c>
       <c r="C183" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29430,7 +29424,7 @@
         <v>295</v>
       </c>
       <c r="C184" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29441,7 +29435,7 @@
         <v>296</v>
       </c>
       <c r="C185" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29452,7 +29446,7 @@
         <v>297</v>
       </c>
       <c r="C186" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29463,7 +29457,7 @@
         <v>298</v>
       </c>
       <c r="C187" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29474,7 +29468,7 @@
         <v>299</v>
       </c>
       <c r="C188" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29485,7 +29479,7 @@
         <v>300</v>
       </c>
       <c r="C189" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29496,7 +29490,7 @@
         <v>301</v>
       </c>
       <c r="C190" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29507,7 +29501,7 @@
         <v>302</v>
       </c>
       <c r="C191" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29518,7 +29512,7 @@
         <v>303</v>
       </c>
       <c r="C192" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29529,7 +29523,7 @@
         <v>304</v>
       </c>
       <c r="C193" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29540,13 +29534,13 @@
         <v>305</v>
       </c>
       <c r="C194" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D194" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E194" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29557,7 +29551,7 @@
         <v>306</v>
       </c>
       <c r="C195" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29568,7 +29562,7 @@
         <v>307</v>
       </c>
       <c r="C196" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29579,7 +29573,7 @@
         <v>295</v>
       </c>
       <c r="C197" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29590,7 +29584,7 @@
         <v>296</v>
       </c>
       <c r="C198" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29601,7 +29595,7 @@
         <v>320</v>
       </c>
       <c r="C199" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29612,7 +29606,7 @@
         <v>321</v>
       </c>
       <c r="C200" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29623,7 +29617,7 @@
         <v>322</v>
       </c>
       <c r="C201" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29634,7 +29628,7 @@
         <v>323</v>
       </c>
       <c r="C202" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29645,7 +29639,7 @@
         <v>324</v>
       </c>
       <c r="C203" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29656,7 +29650,7 @@
         <v>325</v>
       </c>
       <c r="C204" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29667,7 +29661,7 @@
         <v>326</v>
       </c>
       <c r="C205" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29678,7 +29672,7 @@
         <v>327</v>
       </c>
       <c r="C206" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29689,13 +29683,13 @@
         <v>328</v>
       </c>
       <c r="C207" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D207" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E207" t="s">
         <v>2833</v>
-      </c>
-      <c r="E207" t="s">
-        <v>2834</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29706,13 +29700,13 @@
         <v>329</v>
       </c>
       <c r="C208" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D208" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E208" t="s">
         <v>2833</v>
-      </c>
-      <c r="E208" t="s">
-        <v>2834</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29723,13 +29717,13 @@
         <v>330</v>
       </c>
       <c r="C209" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D209" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E209" t="s">
         <v>2833</v>
-      </c>
-      <c r="E209" t="s">
-        <v>2834</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29740,7 +29734,7 @@
         <v>331</v>
       </c>
       <c r="C210" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29751,7 +29745,7 @@
         <v>332</v>
       </c>
       <c r="C211" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29762,7 +29756,7 @@
         <v>333</v>
       </c>
       <c r="C212" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29773,7 +29767,7 @@
         <v>334</v>
       </c>
       <c r="C213" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29784,7 +29778,7 @@
         <v>296</v>
       </c>
       <c r="C214" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29795,7 +29789,7 @@
         <v>297</v>
       </c>
       <c r="C215" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29806,7 +29800,7 @@
         <v>335</v>
       </c>
       <c r="C216" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29817,13 +29811,13 @@
         <v>351</v>
       </c>
       <c r="C217" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D217" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E217" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29834,13 +29828,13 @@
         <v>352</v>
       </c>
       <c r="C218" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D218" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E218" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29851,13 +29845,13 @@
         <v>353</v>
       </c>
       <c r="C219" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D219" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E219" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29868,7 +29862,7 @@
         <v>354</v>
       </c>
       <c r="C220" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29879,7 +29873,7 @@
         <v>355</v>
       </c>
       <c r="C221" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29890,7 +29884,7 @@
         <v>356</v>
       </c>
       <c r="C222" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29901,7 +29895,7 @@
         <v>357</v>
       </c>
       <c r="C223" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -29912,7 +29906,7 @@
         <v>358</v>
       </c>
       <c r="C224" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29923,7 +29917,7 @@
         <v>359</v>
       </c>
       <c r="C225" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29934,7 +29928,7 @@
         <v>360</v>
       </c>
       <c r="C226" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29945,7 +29939,7 @@
         <v>361</v>
       </c>
       <c r="C227" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29956,7 +29950,7 @@
         <v>362</v>
       </c>
       <c r="C228" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29967,7 +29961,7 @@
         <v>363</v>
       </c>
       <c r="C229" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29978,7 +29972,7 @@
         <v>364</v>
       </c>
       <c r="C230" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -29989,7 +29983,7 @@
         <v>365</v>
       </c>
       <c r="C231" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30000,7 +29994,7 @@
         <v>366</v>
       </c>
       <c r="C232" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30011,7 +30005,7 @@
         <v>367</v>
       </c>
       <c r="C233" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30022,7 +30016,7 @@
         <v>368</v>
       </c>
       <c r="C234" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30033,7 +30027,7 @@
         <v>367</v>
       </c>
       <c r="C235" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30044,7 +30038,7 @@
         <v>369</v>
       </c>
       <c r="C236" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30055,7 +30049,7 @@
         <v>388</v>
       </c>
       <c r="C237" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30066,7 +30060,7 @@
         <v>389</v>
       </c>
       <c r="C238" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30077,7 +30071,7 @@
         <v>390</v>
       </c>
       <c r="C239" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30088,7 +30082,7 @@
         <v>391</v>
       </c>
       <c r="C240" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30099,7 +30093,7 @@
         <v>392</v>
       </c>
       <c r="C241" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30110,7 +30104,7 @@
         <v>393</v>
       </c>
       <c r="C242" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30121,7 +30115,7 @@
         <v>394</v>
       </c>
       <c r="C243" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30132,7 +30126,7 @@
         <v>395</v>
       </c>
       <c r="C244" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30143,7 +30137,7 @@
         <v>396</v>
       </c>
       <c r="C245" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30154,7 +30148,7 @@
         <v>355</v>
       </c>
       <c r="C246" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30165,7 +30159,7 @@
         <v>397</v>
       </c>
       <c r="C247" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30176,7 +30170,7 @@
         <v>398</v>
       </c>
       <c r="C248" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30187,7 +30181,7 @@
         <v>399</v>
       </c>
       <c r="C249" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30198,7 +30192,7 @@
         <v>400</v>
       </c>
       <c r="C250" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30209,7 +30203,7 @@
         <v>401</v>
       </c>
       <c r="C251" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30220,7 +30214,7 @@
         <v>402</v>
       </c>
       <c r="C252" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30231,7 +30225,7 @@
         <v>403</v>
       </c>
       <c r="C253" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30242,7 +30236,7 @@
         <v>404</v>
       </c>
       <c r="C254" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30253,7 +30247,7 @@
         <v>422</v>
       </c>
       <c r="C255" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30264,7 +30258,7 @@
         <v>404</v>
       </c>
       <c r="C256" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30275,7 +30269,7 @@
         <v>423</v>
       </c>
       <c r="C257" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30286,7 +30280,7 @@
         <v>424</v>
       </c>
       <c r="C258" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30297,7 +30291,7 @@
         <v>425</v>
       </c>
       <c r="C259" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30308,7 +30302,7 @@
         <v>426</v>
       </c>
       <c r="C260" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30319,7 +30313,7 @@
         <v>427</v>
       </c>
       <c r="C261" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30330,7 +30324,7 @@
         <v>428</v>
       </c>
       <c r="C262" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30341,7 +30335,7 @@
         <v>429</v>
       </c>
       <c r="C263" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30352,7 +30346,7 @@
         <v>430</v>
       </c>
       <c r="C264" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30363,7 +30357,7 @@
         <v>431</v>
       </c>
       <c r="C265" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30374,7 +30368,7 @@
         <v>432</v>
       </c>
       <c r="C266" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30385,7 +30379,7 @@
         <v>433</v>
       </c>
       <c r="C267" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30396,7 +30390,7 @@
         <v>434</v>
       </c>
       <c r="C268" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30407,7 +30401,7 @@
         <v>435</v>
       </c>
       <c r="C269" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30418,7 +30412,7 @@
         <v>436</v>
       </c>
       <c r="C270" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30429,7 +30423,7 @@
         <v>437</v>
       </c>
       <c r="C271" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30440,7 +30434,7 @@
         <v>1597</v>
       </c>
       <c r="C272" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30451,7 +30445,7 @@
         <v>491</v>
       </c>
       <c r="C273" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30462,7 +30456,7 @@
         <v>1599</v>
       </c>
       <c r="C274" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30473,7 +30467,7 @@
         <v>1601</v>
       </c>
       <c r="C275" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30484,7 +30478,7 @@
         <v>1603</v>
       </c>
       <c r="C276" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30495,7 +30489,7 @@
         <v>1605</v>
       </c>
       <c r="C277" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30506,7 +30500,7 @@
         <v>1607</v>
       </c>
       <c r="C278" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30517,7 +30511,7 @@
         <v>1609</v>
       </c>
       <c r="C279" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30528,7 +30522,7 @@
         <v>1611</v>
       </c>
       <c r="C280" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30539,7 +30533,7 @@
         <v>1613</v>
       </c>
       <c r="C281" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30550,13 +30544,13 @@
         <v>492</v>
       </c>
       <c r="C282" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D282" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E282" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30567,7 +30561,7 @@
         <v>493</v>
       </c>
       <c r="C283" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30578,7 +30572,7 @@
         <v>494</v>
       </c>
       <c r="C284" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30589,7 +30583,7 @@
         <v>495</v>
       </c>
       <c r="C285" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30600,7 +30594,7 @@
         <v>496</v>
       </c>
       <c r="C286" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30611,7 +30605,7 @@
         <v>497</v>
       </c>
       <c r="C287" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30622,7 +30616,7 @@
         <v>498</v>
       </c>
       <c r="C288" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30633,13 +30627,13 @@
         <v>499</v>
       </c>
       <c r="C289" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D289" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E289" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30650,7 +30644,7 @@
         <v>1618</v>
       </c>
       <c r="C290" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30661,7 +30655,7 @@
         <v>1620</v>
       </c>
       <c r="C291" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30672,7 +30666,7 @@
         <v>500</v>
       </c>
       <c r="C292" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30683,13 +30677,13 @@
         <v>501</v>
       </c>
       <c r="C293" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D293" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E293" t="s">
         <v>2836</v>
-      </c>
-      <c r="E293" t="s">
-        <v>2837</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30700,7 +30694,7 @@
         <v>502</v>
       </c>
       <c r="C294" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30711,13 +30705,13 @@
         <v>503</v>
       </c>
       <c r="C295" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D295" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E295" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30728,13 +30722,13 @@
         <v>504</v>
       </c>
       <c r="C296" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D296" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E296" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30745,13 +30739,13 @@
         <v>505</v>
       </c>
       <c r="C297" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D297" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E297" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30762,7 +30756,7 @@
         <v>506</v>
       </c>
       <c r="C298" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30773,7 +30767,7 @@
         <v>507</v>
       </c>
       <c r="C299" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30784,7 +30778,7 @@
         <v>508</v>
       </c>
       <c r="C300" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30795,7 +30789,7 @@
         <v>509</v>
       </c>
       <c r="C301" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30806,7 +30800,7 @@
         <v>510</v>
       </c>
       <c r="C302" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30817,7 +30811,7 @@
         <v>511</v>
       </c>
       <c r="C303" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -30828,7 +30822,7 @@
         <v>512</v>
       </c>
       <c r="C304" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30839,7 +30833,7 @@
         <v>513</v>
       </c>
       <c r="C305" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30850,7 +30844,7 @@
         <v>514</v>
       </c>
       <c r="C306" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30861,7 +30855,7 @@
         <v>403</v>
       </c>
       <c r="C307" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30872,7 +30866,7 @@
         <v>515</v>
       </c>
       <c r="C308" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30883,7 +30877,7 @@
         <v>516</v>
       </c>
       <c r="C309" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30894,7 +30888,7 @@
         <v>517</v>
       </c>
       <c r="C310" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30905,7 +30899,7 @@
         <v>518</v>
       </c>
       <c r="C311" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30916,7 +30910,7 @@
         <v>519</v>
       </c>
       <c r="C312" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30927,7 +30921,7 @@
         <v>520</v>
       </c>
       <c r="C313" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30938,7 +30932,7 @@
         <v>521</v>
       </c>
       <c r="C314" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30949,7 +30943,7 @@
         <v>522</v>
       </c>
       <c r="C315" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30960,7 +30954,7 @@
         <v>1630</v>
       </c>
       <c r="C316" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30971,7 +30965,7 @@
         <v>523</v>
       </c>
       <c r="C317" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30982,7 +30976,7 @@
         <v>524</v>
       </c>
       <c r="C318" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -30993,7 +30987,7 @@
         <v>525</v>
       </c>
       <c r="C319" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -31004,7 +30998,7 @@
         <v>526</v>
       </c>
       <c r="C320" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31015,13 +31009,13 @@
         <v>527</v>
       </c>
       <c r="C321" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D321" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E321" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31032,13 +31026,13 @@
         <v>528</v>
       </c>
       <c r="C322" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D322" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E322" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31049,7 +31043,7 @@
         <v>529</v>
       </c>
       <c r="C323" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31060,7 +31054,7 @@
         <v>530</v>
       </c>
       <c r="C324" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31071,7 +31065,7 @@
         <v>531</v>
       </c>
       <c r="C325" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31082,13 +31076,13 @@
         <v>532</v>
       </c>
       <c r="C326" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D326" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E326" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31099,13 +31093,13 @@
         <v>533</v>
       </c>
       <c r="C327" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D327" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E327" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31116,7 +31110,7 @@
         <v>534</v>
       </c>
       <c r="C328" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31127,7 +31121,7 @@
         <v>535</v>
       </c>
       <c r="C329" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31138,7 +31132,7 @@
         <v>536</v>
       </c>
       <c r="C330" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31149,7 +31143,7 @@
         <v>537</v>
       </c>
       <c r="C331" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31160,7 +31154,7 @@
         <v>538</v>
       </c>
       <c r="C332" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31171,7 +31165,7 @@
         <v>539</v>
       </c>
       <c r="C333" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31182,7 +31176,7 @@
         <v>540</v>
       </c>
       <c r="C334" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31193,7 +31187,7 @@
         <v>541</v>
       </c>
       <c r="C335" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31204,7 +31198,7 @@
         <v>542</v>
       </c>
       <c r="C336" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31215,13 +31209,13 @@
         <v>543</v>
       </c>
       <c r="C337" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D337" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E337" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31232,13 +31226,13 @@
         <v>544</v>
       </c>
       <c r="C338" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D338" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E338" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31249,7 +31243,7 @@
         <v>545</v>
       </c>
       <c r="C339" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31260,7 +31254,7 @@
         <v>546</v>
       </c>
       <c r="C340" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31271,7 +31265,7 @@
         <v>547</v>
       </c>
       <c r="C341" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31282,7 +31276,7 @@
         <v>548</v>
       </c>
       <c r="C342" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31293,7 +31287,7 @@
         <v>549</v>
       </c>
       <c r="C343" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31304,7 +31298,7 @@
         <v>550</v>
       </c>
       <c r="C344" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31315,7 +31309,7 @@
         <v>551</v>
       </c>
       <c r="C345" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31326,7 +31320,7 @@
         <v>552</v>
       </c>
       <c r="C346" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31337,7 +31331,7 @@
         <v>553</v>
       </c>
       <c r="C347" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31348,7 +31342,7 @@
         <v>554</v>
       </c>
       <c r="C348" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31359,7 +31353,7 @@
         <v>555</v>
       </c>
       <c r="C349" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31370,7 +31364,7 @@
         <v>549</v>
       </c>
       <c r="C350" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31381,7 +31375,7 @@
         <v>556</v>
       </c>
       <c r="C351" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -31395,10 +31389,10 @@
         <v>557</v>
       </c>
       <c r="D352" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31409,7 +31403,7 @@
         <v>559</v>
       </c>
       <c r="C353" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31420,7 +31414,7 @@
         <v>560</v>
       </c>
       <c r="C354" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31431,7 +31425,7 @@
         <v>561</v>
       </c>
       <c r="C355" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31442,7 +31436,7 @@
         <v>562</v>
       </c>
       <c r="C356" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -31453,7 +31447,7 @@
         <v>563</v>
       </c>
       <c r="C357" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -31475,7 +31469,7 @@
         <v>566</v>
       </c>
       <c r="C359" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31486,7 +31480,7 @@
         <v>567</v>
       </c>
       <c r="C360" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31497,7 +31491,7 @@
         <v>568</v>
       </c>
       <c r="C361" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31508,7 +31502,7 @@
         <v>569</v>
       </c>
       <c r="C362" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -31522,10 +31516,10 @@
         <v>570</v>
       </c>
       <c r="D363" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31536,7 +31530,7 @@
         <v>572</v>
       </c>
       <c r="C364" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31547,13 +31541,13 @@
         <v>573</v>
       </c>
       <c r="C365" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D365" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E365" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31564,7 +31558,7 @@
         <v>574</v>
       </c>
       <c r="C366" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31575,7 +31569,7 @@
         <v>575</v>
       </c>
       <c r="C367" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31586,7 +31580,7 @@
         <v>576</v>
       </c>
       <c r="C368" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31597,7 +31591,7 @@
         <v>577</v>
       </c>
       <c r="C369" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -31619,7 +31613,7 @@
         <v>580</v>
       </c>
       <c r="C371" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31671,13 +31665,13 @@
         <v>583</v>
       </c>
       <c r="C376" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D376" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E376" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31688,7 +31682,7 @@
         <v>584</v>
       </c>
       <c r="C377" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -31699,7 +31693,7 @@
         <v>455</v>
       </c>
       <c r="C378" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -31710,7 +31704,7 @@
         <v>586</v>
       </c>
       <c r="C379" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31721,7 +31715,7 @@
         <v>587</v>
       </c>
       <c r="C380" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31732,7 +31726,7 @@
         <v>588</v>
       </c>
       <c r="C381" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31743,7 +31737,7 @@
         <v>589</v>
       </c>
       <c r="C382" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31754,7 +31748,7 @@
         <v>590</v>
       </c>
       <c r="C383" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31765,13 +31759,13 @@
         <v>591</v>
       </c>
       <c r="C384" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D384" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E384" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31782,13 +31776,13 @@
         <v>592</v>
       </c>
       <c r="C385" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D385" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E385" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31799,7 +31793,7 @@
         <v>593</v>
       </c>
       <c r="C386" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31810,7 +31804,7 @@
         <v>594</v>
       </c>
       <c r="C387" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31821,13 +31815,13 @@
         <v>596</v>
       </c>
       <c r="C388" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D388" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E388" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31838,7 +31832,7 @@
         <v>595</v>
       </c>
       <c r="C389" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31849,7 +31843,7 @@
         <v>597</v>
       </c>
       <c r="C390" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31860,7 +31854,7 @@
         <v>598</v>
       </c>
       <c r="C391" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31871,7 +31865,7 @@
         <v>599</v>
       </c>
       <c r="C392" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31882,7 +31876,7 @@
         <v>600</v>
       </c>
       <c r="C393" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31893,7 +31887,7 @@
         <v>601</v>
       </c>
       <c r="C394" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31904,7 +31898,7 @@
         <v>602</v>
       </c>
       <c r="C395" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31915,7 +31909,7 @@
         <v>603</v>
       </c>
       <c r="C396" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31926,7 +31920,7 @@
         <v>604</v>
       </c>
       <c r="C397" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31937,7 +31931,7 @@
         <v>605</v>
       </c>
       <c r="C398" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31948,7 +31942,7 @@
         <v>606</v>
       </c>
       <c r="C399" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -31959,7 +31953,7 @@
         <v>607</v>
       </c>
       <c r="C400" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -31970,7 +31964,7 @@
         <v>608</v>
       </c>
       <c r="C401" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -31981,7 +31975,7 @@
         <v>609</v>
       </c>
       <c r="C402" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -31992,7 +31986,7 @@
         <v>610</v>
       </c>
       <c r="C403" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32003,7 +31997,7 @@
         <v>611</v>
       </c>
       <c r="C404" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32014,7 +32008,7 @@
         <v>612</v>
       </c>
       <c r="C405" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32025,7 +32019,7 @@
         <v>613</v>
       </c>
       <c r="C406" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32036,7 +32030,7 @@
         <v>614</v>
       </c>
       <c r="C407" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32047,7 +32041,7 @@
         <v>615</v>
       </c>
       <c r="C408" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32058,7 +32052,7 @@
         <v>616</v>
       </c>
       <c r="C409" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32069,7 +32063,7 @@
         <v>617</v>
       </c>
       <c r="C410" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32080,7 +32074,7 @@
         <v>618</v>
       </c>
       <c r="C411" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32091,7 +32085,7 @@
         <v>619</v>
       </c>
       <c r="C412" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32102,7 +32096,7 @@
         <v>620</v>
       </c>
       <c r="C413" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32113,7 +32107,7 @@
         <v>621</v>
       </c>
       <c r="C414" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32124,7 +32118,7 @@
         <v>622</v>
       </c>
       <c r="C415" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32135,7 +32129,7 @@
         <v>623</v>
       </c>
       <c r="C416" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32146,7 +32140,7 @@
         <v>624</v>
       </c>
       <c r="C417" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32157,13 +32151,13 @@
         <v>625</v>
       </c>
       <c r="C418" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D418" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E418" s="10" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32174,7 +32168,7 @@
         <v>626</v>
       </c>
       <c r="C419" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32185,7 +32179,7 @@
         <v>627</v>
       </c>
       <c r="C420" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32196,7 +32190,7 @@
         <v>628</v>
       </c>
       <c r="C421" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32207,7 +32201,7 @@
         <v>629</v>
       </c>
       <c r="C422" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32218,7 +32212,7 @@
         <v>630</v>
       </c>
       <c r="C423" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32229,7 +32223,7 @@
         <v>631</v>
       </c>
       <c r="C424" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32240,7 +32234,7 @@
         <v>632</v>
       </c>
       <c r="C425" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32251,7 +32245,7 @@
         <v>633</v>
       </c>
       <c r="C426" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32262,7 +32256,7 @@
         <v>634</v>
       </c>
       <c r="C427" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32273,7 +32267,7 @@
         <v>635</v>
       </c>
       <c r="C428" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32284,7 +32278,7 @@
         <v>636</v>
       </c>
       <c r="C429" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32295,13 +32289,13 @@
         <v>637</v>
       </c>
       <c r="C430" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D430" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E430" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32312,13 +32306,13 @@
         <v>638</v>
       </c>
       <c r="C431" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D431" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E431" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32329,7 +32323,7 @@
         <v>639</v>
       </c>
       <c r="C432" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32340,7 +32334,7 @@
         <v>640</v>
       </c>
       <c r="C433" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32351,7 +32345,7 @@
         <v>641</v>
       </c>
       <c r="C434" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32362,7 +32356,7 @@
         <v>642</v>
       </c>
       <c r="C435" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32373,7 +32367,7 @@
         <v>643</v>
       </c>
       <c r="C436" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32384,7 +32378,7 @@
         <v>644</v>
       </c>
       <c r="C437" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32395,7 +32389,7 @@
         <v>645</v>
       </c>
       <c r="C438" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32406,10 +32400,10 @@
         <v>1673</v>
       </c>
       <c r="C439" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D439" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -32431,7 +32425,7 @@
         <v>648</v>
       </c>
       <c r="C441" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32442,7 +32436,7 @@
         <v>649</v>
       </c>
       <c r="C442" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32453,7 +32447,7 @@
         <v>650</v>
       </c>
       <c r="C443" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32464,7 +32458,7 @@
         <v>651</v>
       </c>
       <c r="C444" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32475,7 +32469,7 @@
         <v>652</v>
       </c>
       <c r="C445" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32486,7 +32480,7 @@
         <v>653</v>
       </c>
       <c r="C446" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32497,7 +32491,7 @@
         <v>654</v>
       </c>
       <c r="C447" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -32508,7 +32502,7 @@
         <v>655</v>
       </c>
       <c r="C448" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32519,7 +32513,7 @@
         <v>656</v>
       </c>
       <c r="C449" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32530,7 +32524,7 @@
         <v>657</v>
       </c>
       <c r="C450" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32541,7 +32535,7 @@
         <v>658</v>
       </c>
       <c r="C451" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -32574,7 +32568,7 @@
         <v>663</v>
       </c>
       <c r="C454" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32585,7 +32579,7 @@
         <v>664</v>
       </c>
       <c r="C455" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32596,7 +32590,7 @@
         <v>665</v>
       </c>
       <c r="C456" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32607,7 +32601,7 @@
         <v>666</v>
       </c>
       <c r="C457" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32618,7 +32612,7 @@
         <v>667</v>
       </c>
       <c r="C458" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32629,7 +32623,7 @@
         <v>668</v>
       </c>
       <c r="C459" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32640,7 +32634,7 @@
         <v>1680</v>
       </c>
       <c r="C460" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32651,7 +32645,7 @@
         <v>1682</v>
       </c>
       <c r="C461" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32662,7 +32656,7 @@
         <v>1684</v>
       </c>
       <c r="C462" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32673,7 +32667,7 @@
         <v>1686</v>
       </c>
       <c r="C463" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32684,7 +32678,7 @@
         <v>1688</v>
       </c>
       <c r="C464" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32695,7 +32689,7 @@
         <v>1690</v>
       </c>
       <c r="C465" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32706,7 +32700,7 @@
         <v>1692</v>
       </c>
       <c r="C466" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32717,7 +32711,7 @@
         <v>1694</v>
       </c>
       <c r="C467" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32728,7 +32722,7 @@
         <v>669</v>
       </c>
       <c r="C468" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32739,7 +32733,7 @@
         <v>670</v>
       </c>
       <c r="C469" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -32750,7 +32744,7 @@
         <v>671</v>
       </c>
       <c r="C470" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32761,7 +32755,7 @@
         <v>672</v>
       </c>
       <c r="C471" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32772,13 +32766,13 @@
         <v>673</v>
       </c>
       <c r="C472" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D472" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E472" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -32789,7 +32783,7 @@
         <v>674</v>
       </c>
       <c r="C473" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32800,7 +32794,7 @@
         <v>675</v>
       </c>
       <c r="C474" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32811,13 +32805,13 @@
         <v>676</v>
       </c>
       <c r="C475" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D475" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E475" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32828,13 +32822,13 @@
         <v>677</v>
       </c>
       <c r="C476" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D476" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E476" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -32856,7 +32850,7 @@
         <v>680</v>
       </c>
       <c r="C478" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32867,7 +32861,7 @@
         <v>485</v>
       </c>
       <c r="C479" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -32878,7 +32872,7 @@
         <v>486</v>
       </c>
       <c r="C480" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32889,7 +32883,7 @@
         <v>487</v>
       </c>
       <c r="C481" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32900,7 +32894,7 @@
         <v>488</v>
       </c>
       <c r="C482" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32911,7 +32905,7 @@
         <v>681</v>
       </c>
       <c r="C483" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32922,7 +32916,7 @@
         <v>682</v>
       </c>
       <c r="C484" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32933,7 +32927,7 @@
         <v>479</v>
       </c>
       <c r="C485" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32944,7 +32938,7 @@
         <v>480</v>
       </c>
       <c r="C486" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32955,7 +32949,7 @@
         <v>481</v>
       </c>
       <c r="C487" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32966,7 +32960,7 @@
         <v>482</v>
       </c>
       <c r="C488" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32977,7 +32971,7 @@
         <v>483</v>
       </c>
       <c r="C489" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32988,7 +32982,7 @@
         <v>484</v>
       </c>
       <c r="C490" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -32999,7 +32993,7 @@
         <v>485</v>
       </c>
       <c r="C491" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33010,7 +33004,7 @@
         <v>486</v>
       </c>
       <c r="C492" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33021,7 +33015,7 @@
         <v>487</v>
       </c>
       <c r="C493" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33032,7 +33026,7 @@
         <v>488</v>
       </c>
       <c r="C494" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33043,7 +33037,7 @@
         <v>481</v>
       </c>
       <c r="C495" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33054,7 +33048,7 @@
         <v>482</v>
       </c>
       <c r="C496" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -33098,7 +33092,7 @@
         <v>478</v>
       </c>
       <c r="C500" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33109,7 +33103,7 @@
         <v>683</v>
       </c>
       <c r="C501" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33120,7 +33114,7 @@
         <v>684</v>
       </c>
       <c r="C502" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33131,7 +33125,7 @@
         <v>685</v>
       </c>
       <c r="C503" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33142,7 +33136,7 @@
         <v>686</v>
       </c>
       <c r="C504" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33153,7 +33147,7 @@
         <v>687</v>
       </c>
       <c r="C505" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33164,7 +33158,7 @@
         <v>688</v>
       </c>
       <c r="C506" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33175,7 +33169,7 @@
         <v>689</v>
       </c>
       <c r="C507" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33186,7 +33180,7 @@
         <v>690</v>
       </c>
       <c r="C508" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33197,7 +33191,7 @@
         <v>691</v>
       </c>
       <c r="C509" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33208,7 +33202,7 @@
         <v>692</v>
       </c>
       <c r="C510" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33219,7 +33213,7 @@
         <v>693</v>
       </c>
       <c r="C511" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33230,7 +33224,7 @@
         <v>694</v>
       </c>
       <c r="C512" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33241,7 +33235,7 @@
         <v>695</v>
       </c>
       <c r="C513" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33252,7 +33246,7 @@
         <v>696</v>
       </c>
       <c r="C514" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33263,7 +33257,7 @@
         <v>697</v>
       </c>
       <c r="C515" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33274,7 +33268,7 @@
         <v>698</v>
       </c>
       <c r="C516" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33285,7 +33279,7 @@
         <v>699</v>
       </c>
       <c r="C517" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33296,7 +33290,7 @@
         <v>467</v>
       </c>
       <c r="C518" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33307,7 +33301,7 @@
         <v>466</v>
       </c>
       <c r="C519" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33318,7 +33312,7 @@
         <v>462</v>
       </c>
       <c r="C520" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33329,7 +33323,7 @@
         <v>468</v>
       </c>
       <c r="C521" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -33351,7 +33345,7 @@
         <v>471</v>
       </c>
       <c r="C523" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33362,7 +33356,7 @@
         <v>472</v>
       </c>
       <c r="C524" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33373,7 +33367,7 @@
         <v>473</v>
       </c>
       <c r="C525" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -33395,7 +33389,7 @@
         <v>464</v>
       </c>
       <c r="C527" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33406,7 +33400,7 @@
         <v>463</v>
       </c>
       <c r="C528" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -33428,7 +33422,7 @@
         <v>460</v>
       </c>
       <c r="C530" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33439,7 +33433,7 @@
         <v>459</v>
       </c>
       <c r="C531" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33450,7 +33444,7 @@
         <v>458</v>
       </c>
       <c r="C532" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -33472,7 +33466,7 @@
         <v>1734</v>
       </c>
       <c r="C534" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33483,7 +33477,7 @@
         <v>1736</v>
       </c>
       <c r="C535" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33494,7 +33488,7 @@
         <v>1738</v>
       </c>
       <c r="C536" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33505,7 +33499,7 @@
         <v>1740</v>
       </c>
       <c r="C537" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33516,7 +33510,7 @@
         <v>1742</v>
       </c>
       <c r="C538" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33527,7 +33521,7 @@
         <v>1744</v>
       </c>
       <c r="C539" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33538,7 +33532,7 @@
         <v>1746</v>
       </c>
       <c r="C540" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33549,7 +33543,7 @@
         <v>1747</v>
       </c>
       <c r="C541" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33560,7 +33554,7 @@
         <v>1748</v>
       </c>
       <c r="C542" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33571,7 +33565,7 @@
         <v>1750</v>
       </c>
       <c r="C543" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33582,7 +33576,7 @@
         <v>1752</v>
       </c>
       <c r="C544" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33593,7 +33587,7 @@
         <v>1753</v>
       </c>
       <c r="C545" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33604,7 +33598,7 @@
         <v>1755</v>
       </c>
       <c r="C546" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33615,7 +33609,7 @@
         <v>1756</v>
       </c>
       <c r="C547" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33626,7 +33620,7 @@
         <v>1758</v>
       </c>
       <c r="C548" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33637,7 +33631,7 @@
         <v>1759</v>
       </c>
       <c r="C549" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33648,7 +33642,7 @@
         <v>1761</v>
       </c>
       <c r="C550" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33659,7 +33653,7 @@
         <v>1763</v>
       </c>
       <c r="C551" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33670,7 +33664,7 @@
         <v>1764</v>
       </c>
       <c r="C552" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33681,7 +33675,7 @@
         <v>1766</v>
       </c>
       <c r="C553" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33692,7 +33686,7 @@
         <v>1253</v>
       </c>
       <c r="C554" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33703,7 +33697,7 @@
         <v>1768</v>
       </c>
       <c r="C555" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33714,7 +33708,7 @@
         <v>1769</v>
       </c>
       <c r="C556" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33725,7 +33719,7 @@
         <v>1770</v>
       </c>
       <c r="C557" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -33758,7 +33752,7 @@
         <v>704</v>
       </c>
       <c r="C560" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33769,7 +33763,7 @@
         <v>705</v>
       </c>
       <c r="C561" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33780,7 +33774,7 @@
         <v>706</v>
       </c>
       <c r="C562" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33791,7 +33785,7 @@
         <v>707</v>
       </c>
       <c r="C563" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33802,7 +33796,7 @@
         <v>708</v>
       </c>
       <c r="C564" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33813,7 +33807,7 @@
         <v>709</v>
       </c>
       <c r="C565" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33824,7 +33818,7 @@
         <v>710</v>
       </c>
       <c r="C566" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33835,7 +33829,7 @@
         <v>711</v>
       </c>
       <c r="C567" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33846,7 +33840,7 @@
         <v>712</v>
       </c>
       <c r="C568" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33857,7 +33851,7 @@
         <v>713</v>
       </c>
       <c r="C569" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33868,7 +33862,7 @@
         <v>714</v>
       </c>
       <c r="C570" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33879,7 +33873,7 @@
         <v>715</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33890,7 +33884,7 @@
         <v>716</v>
       </c>
       <c r="C572" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33901,7 +33895,7 @@
         <v>717</v>
       </c>
       <c r="C573" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33912,7 +33906,7 @@
         <v>718</v>
       </c>
       <c r="C574" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33923,7 +33917,7 @@
         <v>719</v>
       </c>
       <c r="C575" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -33934,7 +33928,7 @@
         <v>720</v>
       </c>
       <c r="C576" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -33945,7 +33939,7 @@
         <v>721</v>
       </c>
       <c r="C577" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -33956,7 +33950,7 @@
         <v>722</v>
       </c>
       <c r="C578" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -33967,7 +33961,7 @@
         <v>723</v>
       </c>
       <c r="C579" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -33978,13 +33972,13 @@
         <v>724</v>
       </c>
       <c r="C580" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D580" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E580" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -33995,7 +33989,7 @@
         <v>725</v>
       </c>
       <c r="C581" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34006,7 +34000,7 @@
         <v>726</v>
       </c>
       <c r="C582" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34017,7 +34011,7 @@
         <v>727</v>
       </c>
       <c r="C583" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34028,7 +34022,7 @@
         <v>728</v>
       </c>
       <c r="C584" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34039,7 +34033,7 @@
         <v>729</v>
       </c>
       <c r="C585" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34050,7 +34044,7 @@
         <v>730</v>
       </c>
       <c r="C586" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34061,7 +34055,7 @@
         <v>731</v>
       </c>
       <c r="C587" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34072,7 +34066,7 @@
         <v>732</v>
       </c>
       <c r="C588" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34083,7 +34077,7 @@
         <v>733</v>
       </c>
       <c r="C589" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34094,7 +34088,7 @@
         <v>734</v>
       </c>
       <c r="C590" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34105,7 +34099,7 @@
         <v>735</v>
       </c>
       <c r="C591" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34116,7 +34110,7 @@
         <v>736</v>
       </c>
       <c r="C592" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -34138,7 +34132,7 @@
         <v>739</v>
       </c>
       <c r="C594" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34149,7 +34143,7 @@
         <v>740</v>
       </c>
       <c r="C595" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34160,7 +34154,7 @@
         <v>741</v>
       </c>
       <c r="C596" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34171,7 +34165,7 @@
         <v>742</v>
       </c>
       <c r="C597" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34182,7 +34176,7 @@
         <v>743</v>
       </c>
       <c r="C598" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34193,7 +34187,7 @@
         <v>744</v>
       </c>
       <c r="C599" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34204,7 +34198,7 @@
         <v>745</v>
       </c>
       <c r="C600" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34215,7 +34209,7 @@
         <v>746</v>
       </c>
       <c r="C601" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34226,7 +34220,7 @@
         <v>747</v>
       </c>
       <c r="C602" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34237,7 +34231,7 @@
         <v>748</v>
       </c>
       <c r="C603" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34248,7 +34242,7 @@
         <v>749</v>
       </c>
       <c r="C604" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34259,7 +34253,7 @@
         <v>750</v>
       </c>
       <c r="C605" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34270,13 +34264,13 @@
         <v>751</v>
       </c>
       <c r="C606" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D606" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E606" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34287,7 +34281,7 @@
         <v>752</v>
       </c>
       <c r="C607" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="608" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34298,7 +34292,7 @@
         <v>753</v>
       </c>
       <c r="C608" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34309,7 +34303,7 @@
         <v>754</v>
       </c>
       <c r="C609" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34320,7 +34314,7 @@
         <v>755</v>
       </c>
       <c r="C610" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34331,7 +34325,7 @@
         <v>756</v>
       </c>
       <c r="C611" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34342,7 +34336,7 @@
         <v>757</v>
       </c>
       <c r="C612" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34353,7 +34347,7 @@
         <v>758</v>
       </c>
       <c r="C613" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34364,7 +34358,7 @@
         <v>759</v>
       </c>
       <c r="C614" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34375,7 +34369,7 @@
         <v>760</v>
       </c>
       <c r="C615" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34386,7 +34380,7 @@
         <v>761</v>
       </c>
       <c r="C616" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34397,7 +34391,7 @@
         <v>762</v>
       </c>
       <c r="C617" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34408,7 +34402,7 @@
         <v>763</v>
       </c>
       <c r="C618" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34419,7 +34413,7 @@
         <v>764</v>
       </c>
       <c r="C619" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34430,7 +34424,7 @@
         <v>765</v>
       </c>
       <c r="C620" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34441,7 +34435,7 @@
         <v>766</v>
       </c>
       <c r="C621" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34452,7 +34446,7 @@
         <v>767</v>
       </c>
       <c r="C622" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34463,7 +34457,7 @@
         <v>768</v>
       </c>
       <c r="C623" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34474,7 +34468,7 @@
         <v>769</v>
       </c>
       <c r="C624" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="625" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34485,7 +34479,7 @@
         <v>770</v>
       </c>
       <c r="C625" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="626" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34496,7 +34490,7 @@
         <v>771</v>
       </c>
       <c r="C626" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="627" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34507,7 +34501,7 @@
         <v>772</v>
       </c>
       <c r="C627" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="628" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34518,7 +34512,7 @@
         <v>773</v>
       </c>
       <c r="C628" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="629" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34529,7 +34523,7 @@
         <v>774</v>
       </c>
       <c r="C629" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="630" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34540,7 +34534,7 @@
         <v>774</v>
       </c>
       <c r="C630" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="631" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34551,13 +34545,13 @@
         <v>775</v>
       </c>
       <c r="C631" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D631" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E631" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="632" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34568,7 +34562,7 @@
         <v>776</v>
       </c>
       <c r="C632" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="633" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34579,7 +34573,7 @@
         <v>777</v>
       </c>
       <c r="C633" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="634" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34590,7 +34584,7 @@
         <v>778</v>
       </c>
       <c r="C634" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="635" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34601,7 +34595,7 @@
         <v>779</v>
       </c>
       <c r="C635" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="636" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34612,7 +34606,7 @@
         <v>780</v>
       </c>
       <c r="C636" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="637" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34623,7 +34617,7 @@
         <v>781</v>
       </c>
       <c r="C637" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="638" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34634,7 +34628,7 @@
         <v>782</v>
       </c>
       <c r="C638" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="639" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34645,7 +34639,7 @@
         <v>783</v>
       </c>
       <c r="C639" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="640" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34656,7 +34650,7 @@
         <v>784</v>
       </c>
       <c r="C640" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34667,7 +34661,7 @@
         <v>785</v>
       </c>
       <c r="C641" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34678,7 +34672,7 @@
         <v>786</v>
       </c>
       <c r="C642" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34689,7 +34683,7 @@
         <v>787</v>
       </c>
       <c r="C643" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34700,7 +34694,7 @@
         <v>788</v>
       </c>
       <c r="C644" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34711,7 +34705,7 @@
         <v>789</v>
       </c>
       <c r="C645" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34722,7 +34716,7 @@
         <v>790</v>
       </c>
       <c r="C646" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34733,7 +34727,7 @@
         <v>791</v>
       </c>
       <c r="C647" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34744,7 +34738,7 @@
         <v>792</v>
       </c>
       <c r="C648" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34755,7 +34749,7 @@
         <v>793</v>
       </c>
       <c r="C649" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34766,7 +34760,7 @@
         <v>794</v>
       </c>
       <c r="C650" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34777,7 +34771,7 @@
         <v>795</v>
       </c>
       <c r="C651" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34788,7 +34782,7 @@
         <v>796</v>
       </c>
       <c r="C652" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34799,7 +34793,7 @@
         <v>797</v>
       </c>
       <c r="C653" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -34810,7 +34804,7 @@
         <v>798</v>
       </c>
       <c r="C654" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -34832,7 +34826,7 @@
         <v>801</v>
       </c>
       <c r="C656" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34843,7 +34837,7 @@
         <v>802</v>
       </c>
       <c r="C657" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="658" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34854,13 +34848,13 @@
         <v>803</v>
       </c>
       <c r="C658" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D658" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E658" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34871,7 +34865,7 @@
         <v>804</v>
       </c>
       <c r="C659" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34882,7 +34876,7 @@
         <v>805</v>
       </c>
       <c r="C660" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="661" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34893,7 +34887,7 @@
         <v>806</v>
       </c>
       <c r="C661" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34904,7 +34898,7 @@
         <v>807</v>
       </c>
       <c r="C662" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34915,7 +34909,7 @@
         <v>808</v>
       </c>
       <c r="C663" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="664" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34926,7 +34920,7 @@
         <v>809</v>
       </c>
       <c r="C664" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="665" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34937,7 +34931,7 @@
         <v>810</v>
       </c>
       <c r="C665" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="666" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34948,7 +34942,7 @@
         <v>811</v>
       </c>
       <c r="C666" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="667" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34959,7 +34953,7 @@
         <v>812</v>
       </c>
       <c r="C667" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="668" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34970,7 +34964,7 @@
         <v>813</v>
       </c>
       <c r="C668" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="669" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34981,7 +34975,7 @@
         <v>814</v>
       </c>
       <c r="C669" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -34992,13 +34986,13 @@
         <v>815</v>
       </c>
       <c r="C670" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D670" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E670" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="671" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -35009,7 +35003,7 @@
         <v>1819</v>
       </c>
       <c r="C671" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -35020,7 +35014,7 @@
         <v>816</v>
       </c>
       <c r="C672" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35031,7 +35025,7 @@
         <v>1822</v>
       </c>
       <c r="C673" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35042,7 +35036,7 @@
         <v>817</v>
       </c>
       <c r="C674" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35053,7 +35047,7 @@
         <v>709</v>
       </c>
       <c r="C675" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="676" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35064,7 +35058,7 @@
         <v>818</v>
       </c>
       <c r="C676" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35075,7 +35069,7 @@
         <v>819</v>
       </c>
       <c r="C677" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -35097,7 +35091,7 @@
         <v>822</v>
       </c>
       <c r="C679" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35108,7 +35102,7 @@
         <v>823</v>
       </c>
       <c r="C680" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35119,7 +35113,7 @@
         <v>824</v>
       </c>
       <c r="C681" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35130,7 +35124,7 @@
         <v>825</v>
       </c>
       <c r="C682" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35141,7 +35135,7 @@
         <v>826</v>
       </c>
       <c r="C683" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="684" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35152,7 +35146,7 @@
         <v>827</v>
       </c>
       <c r="C684" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35163,7 +35157,7 @@
         <v>828</v>
       </c>
       <c r="C685" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="686" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35174,7 +35168,7 @@
         <v>829</v>
       </c>
       <c r="C686" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35185,7 +35179,7 @@
         <v>830</v>
       </c>
       <c r="C687" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="688" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35196,7 +35190,7 @@
         <v>831</v>
       </c>
       <c r="C688" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="689" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35207,7 +35201,7 @@
         <v>832</v>
       </c>
       <c r="C689" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35218,7 +35212,7 @@
         <v>833</v>
       </c>
       <c r="C690" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="691" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35229,7 +35223,7 @@
         <v>834</v>
       </c>
       <c r="C691" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="692" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35240,7 +35234,7 @@
         <v>835</v>
       </c>
       <c r="C692" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="693" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35251,7 +35245,7 @@
         <v>836</v>
       </c>
       <c r="C693" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="694" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35262,7 +35256,7 @@
         <v>837</v>
       </c>
       <c r="C694" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="695" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35273,7 +35267,7 @@
         <v>838</v>
       </c>
       <c r="C695" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="696" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35284,7 +35278,7 @@
         <v>839</v>
       </c>
       <c r="C696" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="697" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35295,7 +35289,7 @@
         <v>840</v>
       </c>
       <c r="C697" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="698" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35306,7 +35300,7 @@
         <v>841</v>
       </c>
       <c r="C698" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="699" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35317,7 +35311,7 @@
         <v>842</v>
       </c>
       <c r="C699" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="700" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35328,7 +35322,7 @@
         <v>843</v>
       </c>
       <c r="C700" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="701" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35339,7 +35333,7 @@
         <v>844</v>
       </c>
       <c r="C701" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="702" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35350,7 +35344,7 @@
         <v>845</v>
       </c>
       <c r="C702" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="703" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35361,7 +35355,7 @@
         <v>846</v>
       </c>
       <c r="C703" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="704" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35372,7 +35366,7 @@
         <v>847</v>
       </c>
       <c r="C704" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="705" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35383,7 +35377,7 @@
         <v>848</v>
       </c>
       <c r="C705" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="706" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35394,7 +35388,7 @@
         <v>849</v>
       </c>
       <c r="C706" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="707" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35405,7 +35399,7 @@
         <v>850</v>
       </c>
       <c r="C707" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="708" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35416,7 +35410,7 @@
         <v>850</v>
       </c>
       <c r="C708" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="709" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35427,7 +35421,7 @@
         <v>851</v>
       </c>
       <c r="C709" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="710" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35438,7 +35432,7 @@
         <v>852</v>
       </c>
       <c r="C710" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="711" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35449,7 +35443,7 @@
         <v>853</v>
       </c>
       <c r="C711" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="712" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35460,7 +35454,7 @@
         <v>854</v>
       </c>
       <c r="C712" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="713" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35471,7 +35465,7 @@
         <v>855</v>
       </c>
       <c r="C713" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="714" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35482,7 +35476,7 @@
         <v>856</v>
       </c>
       <c r="C714" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="715" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35493,7 +35487,7 @@
         <v>857</v>
       </c>
       <c r="C715" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="716" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35504,7 +35498,7 @@
         <v>858</v>
       </c>
       <c r="C716" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="717" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35515,7 +35509,7 @@
         <v>859</v>
       </c>
       <c r="C717" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="718" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35526,7 +35520,7 @@
         <v>860</v>
       </c>
       <c r="C718" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="719" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35537,7 +35531,7 @@
         <v>861</v>
       </c>
       <c r="C719" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="720" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35548,7 +35542,7 @@
         <v>862</v>
       </c>
       <c r="C720" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="721" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35559,7 +35553,7 @@
         <v>863</v>
       </c>
       <c r="C721" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="722" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35570,7 +35564,7 @@
         <v>864</v>
       </c>
       <c r="C722" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="723" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35581,7 +35575,7 @@
         <v>865</v>
       </c>
       <c r="C723" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="724" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35592,7 +35586,7 @@
         <v>866</v>
       </c>
       <c r="C724" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="725" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35603,7 +35597,7 @@
         <v>867</v>
       </c>
       <c r="C725" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="726" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35614,7 +35608,7 @@
         <v>868</v>
       </c>
       <c r="C726" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="727" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35625,7 +35619,7 @@
         <v>869</v>
       </c>
       <c r="C727" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="728" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35636,7 +35630,7 @@
         <v>870</v>
       </c>
       <c r="C728" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="729" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35647,7 +35641,7 @@
         <v>871</v>
       </c>
       <c r="C729" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="730" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35658,7 +35652,7 @@
         <v>872</v>
       </c>
       <c r="C730" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="731" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35669,7 +35663,7 @@
         <v>850</v>
       </c>
       <c r="C731" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="732" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35680,7 +35674,7 @@
         <v>873</v>
       </c>
       <c r="C732" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="733" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35691,7 +35685,7 @@
         <v>874</v>
       </c>
       <c r="C733" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="734" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35702,7 +35696,7 @@
         <v>874</v>
       </c>
       <c r="C734" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="735" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35713,7 +35707,7 @@
         <v>875</v>
       </c>
       <c r="C735" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="736" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35724,7 +35718,7 @@
         <v>876</v>
       </c>
       <c r="C736" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="737" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35735,7 +35729,7 @@
         <v>877</v>
       </c>
       <c r="C737" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="738" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35746,7 +35740,7 @@
         <v>878</v>
       </c>
       <c r="C738" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="739" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35757,7 +35751,7 @@
         <v>879</v>
       </c>
       <c r="C739" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="740" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35768,7 +35762,7 @@
         <v>880</v>
       </c>
       <c r="C740" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="741" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35779,7 +35773,7 @@
         <v>881</v>
       </c>
       <c r="C741" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="742" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35790,7 +35784,7 @@
         <v>882</v>
       </c>
       <c r="C742" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="743" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35801,7 +35795,7 @@
         <v>883</v>
       </c>
       <c r="C743" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="744" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35812,7 +35806,7 @@
         <v>884</v>
       </c>
       <c r="C744" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="745" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35823,7 +35817,7 @@
         <v>885</v>
       </c>
       <c r="C745" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="746" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35834,7 +35828,7 @@
         <v>886</v>
       </c>
       <c r="C746" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="747" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35845,7 +35839,7 @@
         <v>887</v>
       </c>
       <c r="C747" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="748" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35856,7 +35850,7 @@
         <v>888</v>
       </c>
       <c r="C748" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="749" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35867,7 +35861,7 @@
         <v>889</v>
       </c>
       <c r="C749" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="750" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35878,7 +35872,7 @@
         <v>890</v>
       </c>
       <c r="C750" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="751" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35889,7 +35883,7 @@
         <v>891</v>
       </c>
       <c r="C751" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="752" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35900,7 +35894,7 @@
         <v>892</v>
       </c>
       <c r="C752" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="753" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35911,7 +35905,7 @@
         <v>893</v>
       </c>
       <c r="C753" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="754" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35922,7 +35916,7 @@
         <v>894</v>
       </c>
       <c r="C754" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="755" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35933,7 +35927,7 @@
         <v>895</v>
       </c>
       <c r="C755" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="756" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35944,7 +35938,7 @@
         <v>896</v>
       </c>
       <c r="C756" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="757" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35955,7 +35949,7 @@
         <v>897</v>
       </c>
       <c r="C757" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="758" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35966,7 +35960,7 @@
         <v>898</v>
       </c>
       <c r="C758" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="759" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35977,7 +35971,7 @@
         <v>899</v>
       </c>
       <c r="C759" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="760" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35988,7 +35982,7 @@
         <v>900</v>
       </c>
       <c r="C760" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="761" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -35999,7 +35993,7 @@
         <v>901</v>
       </c>
       <c r="C761" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="762" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36010,7 +36004,7 @@
         <v>902</v>
       </c>
       <c r="C762" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="763" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36021,7 +36015,7 @@
         <v>903</v>
       </c>
       <c r="C763" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="764" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36032,7 +36026,7 @@
         <v>904</v>
       </c>
       <c r="C764" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="765" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36043,7 +36037,7 @@
         <v>905</v>
       </c>
       <c r="C765" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="766" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36054,7 +36048,7 @@
         <v>906</v>
       </c>
       <c r="C766" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="767" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36065,7 +36059,7 @@
         <v>907</v>
       </c>
       <c r="C767" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="768" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36076,7 +36070,7 @@
         <v>908</v>
       </c>
       <c r="C768" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="769" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36087,7 +36081,7 @@
         <v>909</v>
       </c>
       <c r="C769" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="770" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36098,7 +36092,7 @@
         <v>910</v>
       </c>
       <c r="C770" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="771" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36109,7 +36103,7 @@
         <v>911</v>
       </c>
       <c r="C771" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="772" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36120,7 +36114,7 @@
         <v>913</v>
       </c>
       <c r="C772" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="773" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36131,7 +36125,7 @@
         <v>912</v>
       </c>
       <c r="C773" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="774" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36142,7 +36136,7 @@
         <v>913</v>
       </c>
       <c r="C774" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="775" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36153,7 +36147,7 @@
         <v>914</v>
       </c>
       <c r="C775" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="776" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36164,7 +36158,7 @@
         <v>915</v>
       </c>
       <c r="C776" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="777" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36175,7 +36169,7 @@
         <v>916</v>
       </c>
       <c r="C777" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="778" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36186,7 +36180,7 @@
         <v>917</v>
       </c>
       <c r="C778" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="779" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36197,7 +36191,7 @@
         <v>918</v>
       </c>
       <c r="C779" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="780" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36208,7 +36202,7 @@
         <v>919</v>
       </c>
       <c r="C780" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="781" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36219,7 +36213,7 @@
         <v>920</v>
       </c>
       <c r="C781" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="782" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36230,7 +36224,7 @@
         <v>921</v>
       </c>
       <c r="C782" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="783" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36241,7 +36235,7 @@
         <v>922</v>
       </c>
       <c r="C783" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="784" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36252,7 +36246,7 @@
         <v>923</v>
       </c>
       <c r="C784" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="785" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36263,7 +36257,7 @@
         <v>924</v>
       </c>
       <c r="C785" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="786" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36274,7 +36268,7 @@
         <v>925</v>
       </c>
       <c r="C786" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="787" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36285,7 +36279,7 @@
         <v>926</v>
       </c>
       <c r="C787" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="788" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36296,7 +36290,7 @@
         <v>927</v>
       </c>
       <c r="C788" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="789" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36307,7 +36301,7 @@
         <v>928</v>
       </c>
       <c r="C789" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="790" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36318,7 +36312,7 @@
         <v>929</v>
       </c>
       <c r="C790" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="791" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36329,7 +36323,7 @@
         <v>930</v>
       </c>
       <c r="C791" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="792" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36340,7 +36334,7 @@
         <v>931</v>
       </c>
       <c r="C792" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="793" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36351,7 +36345,7 @@
         <v>932</v>
       </c>
       <c r="C793" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="794" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36362,7 +36356,7 @@
         <v>933</v>
       </c>
       <c r="C794" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="795" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36373,7 +36367,7 @@
         <v>934</v>
       </c>
       <c r="C795" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="796" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36384,7 +36378,7 @@
         <v>935</v>
       </c>
       <c r="C796" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="797" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36395,7 +36389,7 @@
         <v>936</v>
       </c>
       <c r="C797" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="798" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36406,7 +36400,7 @@
         <v>937</v>
       </c>
       <c r="C798" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="799" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36417,7 +36411,7 @@
         <v>938</v>
       </c>
       <c r="C799" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="800" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36428,7 +36422,7 @@
         <v>939</v>
       </c>
       <c r="C800" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="801" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36439,7 +36433,7 @@
         <v>940</v>
       </c>
       <c r="C801" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="802" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36450,7 +36444,7 @@
         <v>941</v>
       </c>
       <c r="C802" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="803" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36461,7 +36455,7 @@
         <v>942</v>
       </c>
       <c r="C803" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="804" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36472,7 +36466,7 @@
         <v>943</v>
       </c>
       <c r="C804" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="805" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36483,7 +36477,7 @@
         <v>1851</v>
       </c>
       <c r="C805" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="806" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36494,7 +36488,7 @@
         <v>1852</v>
       </c>
       <c r="C806" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="807" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36505,7 +36499,7 @@
         <v>1854</v>
       </c>
       <c r="C807" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="808" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36516,7 +36510,7 @@
         <v>1856</v>
       </c>
       <c r="C808" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="809" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36527,7 +36521,7 @@
         <v>944</v>
       </c>
       <c r="C809" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="810" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36538,7 +36532,7 @@
         <v>1857</v>
       </c>
       <c r="C810" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="811" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36549,7 +36543,7 @@
         <v>1858</v>
       </c>
       <c r="C811" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="812" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36560,7 +36554,7 @@
         <v>1860</v>
       </c>
       <c r="C812" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="813" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36571,7 +36565,7 @@
         <v>1862</v>
       </c>
       <c r="C813" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="814" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36582,7 +36576,7 @@
         <v>945</v>
       </c>
       <c r="C814" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="815" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36593,7 +36587,7 @@
         <v>946</v>
       </c>
       <c r="C815" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="816" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36604,7 +36598,7 @@
         <v>947</v>
       </c>
       <c r="C816" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="817" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36615,7 +36609,7 @@
         <v>948</v>
       </c>
       <c r="C817" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="818" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36626,7 +36620,7 @@
         <v>949</v>
       </c>
       <c r="C818" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="819" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36637,7 +36631,7 @@
         <v>950</v>
       </c>
       <c r="C819" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="820" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36648,7 +36642,7 @@
         <v>951</v>
       </c>
       <c r="C820" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="821" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36659,7 +36653,7 @@
         <v>952</v>
       </c>
       <c r="C821" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="822" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36670,7 +36664,7 @@
         <v>953</v>
       </c>
       <c r="C822" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="823" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36681,7 +36675,7 @@
         <v>954</v>
       </c>
       <c r="C823" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="824" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36692,7 +36686,7 @@
         <v>955</v>
       </c>
       <c r="C824" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="825" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36703,7 +36697,7 @@
         <v>956</v>
       </c>
       <c r="C825" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="826" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36714,7 +36708,7 @@
         <v>957</v>
       </c>
       <c r="C826" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="827" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36725,7 +36719,7 @@
         <v>958</v>
       </c>
       <c r="C827" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="828" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36736,7 +36730,7 @@
         <v>959</v>
       </c>
       <c r="C828" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="829" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36747,7 +36741,7 @@
         <v>960</v>
       </c>
       <c r="C829" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="830" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36758,7 +36752,7 @@
         <v>961</v>
       </c>
       <c r="C830" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="831" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36769,7 +36763,7 @@
         <v>962</v>
       </c>
       <c r="C831" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="832" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -36780,7 +36774,7 @@
         <v>963</v>
       </c>
       <c r="C832" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36791,7 +36785,7 @@
         <v>964</v>
       </c>
       <c r="C833" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="834" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36802,7 +36796,7 @@
         <v>965</v>
       </c>
       <c r="C834" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="835" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36813,7 +36807,7 @@
         <v>966</v>
       </c>
       <c r="C835" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="836" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36824,7 +36818,7 @@
         <v>967</v>
       </c>
       <c r="C836" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="837" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36835,7 +36829,7 @@
         <v>968</v>
       </c>
       <c r="C837" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="838" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36846,7 +36840,7 @@
         <v>969</v>
       </c>
       <c r="C838" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="839" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36857,7 +36851,7 @@
         <v>970</v>
       </c>
       <c r="C839" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="840" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36868,7 +36862,7 @@
         <v>971</v>
       </c>
       <c r="C840" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="841" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36901,13 +36895,13 @@
         <v>974</v>
       </c>
       <c r="C843" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D843" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E843" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="844" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36918,7 +36912,7 @@
         <v>975</v>
       </c>
       <c r="C844" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="845" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36929,7 +36923,7 @@
         <v>976</v>
       </c>
       <c r="C845" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="846" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36940,7 +36934,7 @@
         <v>977</v>
       </c>
       <c r="C846" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="847" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36951,7 +36945,7 @@
         <v>978</v>
       </c>
       <c r="C847" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="848" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36962,13 +36956,13 @@
         <v>979</v>
       </c>
       <c r="C848" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D848" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E848" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="849" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36979,13 +36973,13 @@
         <v>980</v>
       </c>
       <c r="C849" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D849" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E849" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="850" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -36996,13 +36990,13 @@
         <v>981</v>
       </c>
       <c r="C850" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D850" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E850" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="851" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37013,7 +37007,7 @@
         <v>982</v>
       </c>
       <c r="C851" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="852" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37024,7 +37018,7 @@
         <v>983</v>
       </c>
       <c r="C852" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="853" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37035,7 +37029,7 @@
         <v>984</v>
       </c>
       <c r="C853" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="854" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37046,7 +37040,7 @@
         <v>985</v>
       </c>
       <c r="C854" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="855" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37057,7 +37051,7 @@
         <v>986</v>
       </c>
       <c r="C855" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="856" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37068,7 +37062,7 @@
         <v>987</v>
       </c>
       <c r="C856" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="857" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37079,7 +37073,7 @@
         <v>988</v>
       </c>
       <c r="C857" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="858" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37090,7 +37084,7 @@
         <v>989</v>
       </c>
       <c r="C858" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="859" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37101,7 +37095,7 @@
         <v>990</v>
       </c>
       <c r="C859" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="860" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37112,7 +37106,7 @@
         <v>991</v>
       </c>
       <c r="C860" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="861" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37123,7 +37117,7 @@
         <v>992</v>
       </c>
       <c r="C861" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="862" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37134,7 +37128,7 @@
         <v>993</v>
       </c>
       <c r="C862" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="863" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37145,7 +37139,7 @@
         <v>994</v>
       </c>
       <c r="C863" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="864" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37156,7 +37150,7 @@
         <v>995</v>
       </c>
       <c r="C864" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="865" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37167,7 +37161,7 @@
         <v>996</v>
       </c>
       <c r="C865" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="866" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37178,13 +37172,13 @@
         <v>997</v>
       </c>
       <c r="C866" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D866" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E866" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="867" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37195,13 +37189,13 @@
         <v>998</v>
       </c>
       <c r="C867" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D867" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E867" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="868" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37212,7 +37206,7 @@
         <v>999</v>
       </c>
       <c r="C868" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="869" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37223,7 +37217,7 @@
         <v>1000</v>
       </c>
       <c r="C869" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
@@ -37245,7 +37239,7 @@
         <v>1003</v>
       </c>
       <c r="C871" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="872" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37256,7 +37250,7 @@
         <v>1004</v>
       </c>
       <c r="C872" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="873" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37267,7 +37261,7 @@
         <v>1005</v>
       </c>
       <c r="C873" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="874" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37278,7 +37272,7 @@
         <v>1006</v>
       </c>
       <c r="C874" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="875" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37289,7 +37283,7 @@
         <v>1892</v>
       </c>
       <c r="C875" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="876" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37300,7 +37294,7 @@
         <v>1007</v>
       </c>
       <c r="C876" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="877" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37311,7 +37305,7 @@
         <v>1008</v>
       </c>
       <c r="C877" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="878" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37322,7 +37316,7 @@
         <v>1009</v>
       </c>
       <c r="C878" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="879" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37333,7 +37327,7 @@
         <v>1010</v>
       </c>
       <c r="C879" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="880" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -37344,7 +37338,7 @@
         <v>1011</v>
       </c>
       <c r="C880" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="881" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37355,7 +37349,7 @@
         <v>1012</v>
       </c>
       <c r="C881" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="882" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37366,7 +37360,7 @@
         <v>1013</v>
       </c>
       <c r="C882" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="883" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37377,7 +37371,7 @@
         <v>1014</v>
       </c>
       <c r="C883" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="884" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37388,7 +37382,7 @@
         <v>1015</v>
       </c>
       <c r="C884" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="885" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37399,7 +37393,7 @@
         <v>1016</v>
       </c>
       <c r="C885" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="886" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37410,7 +37404,7 @@
         <v>1017</v>
       </c>
       <c r="C886" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="887" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37421,7 +37415,7 @@
         <v>1018</v>
       </c>
       <c r="C887" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
@@ -37454,7 +37448,7 @@
         <v>1023</v>
       </c>
       <c r="C890" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="891" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37465,7 +37459,7 @@
         <v>1024</v>
       </c>
       <c r="C891" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="892" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37476,7 +37470,7 @@
         <v>1027</v>
       </c>
       <c r="C892" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
@@ -37498,7 +37492,7 @@
         <v>1028</v>
       </c>
       <c r="C894" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="895" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37509,7 +37503,7 @@
         <v>1029</v>
       </c>
       <c r="C895" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="896" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37520,7 +37514,7 @@
         <v>1030</v>
       </c>
       <c r="C896" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="897" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37531,7 +37525,7 @@
         <v>1031</v>
       </c>
       <c r="C897" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="898" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37542,7 +37536,7 @@
         <v>1900</v>
       </c>
       <c r="C898" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="899" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37553,7 +37547,7 @@
         <v>1902</v>
       </c>
       <c r="C899" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="900" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37564,7 +37558,7 @@
         <v>1032</v>
       </c>
       <c r="C900" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="901" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37575,7 +37569,7 @@
         <v>1033</v>
       </c>
       <c r="C901" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="902" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37586,7 +37580,7 @@
         <v>1034</v>
       </c>
       <c r="C902" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="903" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37597,7 +37591,7 @@
         <v>1035</v>
       </c>
       <c r="C903" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="904" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37608,7 +37602,7 @@
         <v>1036</v>
       </c>
       <c r="C904" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="905" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37619,7 +37613,7 @@
         <v>1037</v>
       </c>
       <c r="C905" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="906" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37630,7 +37624,7 @@
         <v>1907</v>
       </c>
       <c r="C906" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="907" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37641,7 +37635,7 @@
         <v>1908</v>
       </c>
       <c r="C907" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="908" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37652,7 +37646,7 @@
         <v>1038</v>
       </c>
       <c r="C908" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="909" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37663,7 +37657,7 @@
         <v>1039</v>
       </c>
       <c r="C909" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="910" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37674,7 +37668,7 @@
         <v>1040</v>
       </c>
       <c r="C910" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="911" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37685,7 +37679,7 @@
         <v>1041</v>
       </c>
       <c r="C911" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="912" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37696,7 +37690,7 @@
         <v>1042</v>
       </c>
       <c r="C912" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="913" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37707,7 +37701,7 @@
         <v>1043</v>
       </c>
       <c r="C913" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="914" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37718,7 +37712,7 @@
         <v>1909</v>
       </c>
       <c r="C914" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="915" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37729,7 +37723,7 @@
         <v>1910</v>
       </c>
       <c r="C915" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="916" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37740,7 +37734,7 @@
         <v>1044</v>
       </c>
       <c r="C916" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="917" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37751,7 +37745,7 @@
         <v>1045</v>
       </c>
       <c r="C917" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="918" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37762,7 +37756,7 @@
         <v>1046</v>
       </c>
       <c r="C918" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="919" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37773,7 +37767,7 @@
         <v>1047</v>
       </c>
       <c r="C919" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="920" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37784,7 +37778,7 @@
         <v>1912</v>
       </c>
       <c r="C920" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="921" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37795,7 +37789,7 @@
         <v>1914</v>
       </c>
       <c r="C921" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.25">
@@ -37817,7 +37811,7 @@
         <v>1050</v>
       </c>
       <c r="C923" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="924" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37828,7 +37822,7 @@
         <v>1051</v>
       </c>
       <c r="C924" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="925" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37839,7 +37833,7 @@
         <v>1052</v>
       </c>
       <c r="C925" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="926" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37850,7 +37844,7 @@
         <v>1053</v>
       </c>
       <c r="C926" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="927" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37861,7 +37855,7 @@
         <v>1054</v>
       </c>
       <c r="C927" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="928" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37872,7 +37866,7 @@
         <v>1055</v>
       </c>
       <c r="C928" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="929" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37883,7 +37877,7 @@
         <v>1056</v>
       </c>
       <c r="C929" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="930" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37894,7 +37888,7 @@
         <v>1057</v>
       </c>
       <c r="C930" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="931" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37905,7 +37899,7 @@
         <v>1058</v>
       </c>
       <c r="C931" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="932" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37916,7 +37910,7 @@
         <v>1059</v>
       </c>
       <c r="C932" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
@@ -37938,7 +37932,7 @@
         <v>1062</v>
       </c>
       <c r="C934" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.25">
@@ -37971,7 +37965,7 @@
         <v>1067</v>
       </c>
       <c r="C937" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="938" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37982,7 +37976,7 @@
         <v>1068</v>
       </c>
       <c r="C938" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="939" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -37993,7 +37987,7 @@
         <v>1069</v>
       </c>
       <c r="C939" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="940" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38004,7 +37998,7 @@
         <v>1070</v>
       </c>
       <c r="C940" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="941" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38015,7 +38009,7 @@
         <v>1071</v>
       </c>
       <c r="C941" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="942" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38026,7 +38020,7 @@
         <v>1072</v>
       </c>
       <c r="C942" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="943" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38037,7 +38031,7 @@
         <v>1073</v>
       </c>
       <c r="C943" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="944" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38048,7 +38042,7 @@
         <v>1074</v>
       </c>
       <c r="C944" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="945" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38059,7 +38053,7 @@
         <v>1075</v>
       </c>
       <c r="C945" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="946" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38070,7 +38064,7 @@
         <v>1067</v>
       </c>
       <c r="C946" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="947" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38081,7 +38075,7 @@
         <v>1068</v>
       </c>
       <c r="C947" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="948" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38092,7 +38086,7 @@
         <v>1069</v>
       </c>
       <c r="C948" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="949" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38103,7 +38097,7 @@
         <v>1070</v>
       </c>
       <c r="C949" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="950" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38114,7 +38108,7 @@
         <v>1076</v>
       </c>
       <c r="C950" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="951" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38125,7 +38119,7 @@
         <v>1077</v>
       </c>
       <c r="C951" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="952" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38136,7 +38130,7 @@
         <v>1078</v>
       </c>
       <c r="C952" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="953" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38147,7 +38141,7 @@
         <v>1079</v>
       </c>
       <c r="C953" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="954" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38158,7 +38152,7 @@
         <v>1080</v>
       </c>
       <c r="C954" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="955" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38169,7 +38163,7 @@
         <v>1081</v>
       </c>
       <c r="C955" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="956" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38180,7 +38174,7 @@
         <v>1082</v>
       </c>
       <c r="C956" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="957" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38191,7 +38185,7 @@
         <v>1083</v>
       </c>
       <c r="C957" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="958" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38202,7 +38196,7 @@
         <v>1084</v>
       </c>
       <c r="C958" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="959" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38213,7 +38207,7 @@
         <v>1085</v>
       </c>
       <c r="C959" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="960" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38224,7 +38218,7 @@
         <v>1085</v>
       </c>
       <c r="C960" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="961" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38235,7 +38229,7 @@
         <v>1925</v>
       </c>
       <c r="C961" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="962" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38246,7 +38240,7 @@
         <v>1086</v>
       </c>
       <c r="C962" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="963" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38257,7 +38251,7 @@
         <v>1087</v>
       </c>
       <c r="C963" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="964" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38268,7 +38262,7 @@
         <v>1088</v>
       </c>
       <c r="C964" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="965" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38279,7 +38273,7 @@
         <v>1089</v>
       </c>
       <c r="C965" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="966" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38290,7 +38284,7 @@
         <v>1090</v>
       </c>
       <c r="C966" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="967" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38301,7 +38295,7 @@
         <v>1091</v>
       </c>
       <c r="C967" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="968" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38312,7 +38306,7 @@
         <v>1092</v>
       </c>
       <c r="C968" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="969" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38323,7 +38317,7 @@
         <v>1093</v>
       </c>
       <c r="C969" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="970" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38334,7 +38328,7 @@
         <v>1094</v>
       </c>
       <c r="C970" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="971" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38345,7 +38339,7 @@
         <v>1095</v>
       </c>
       <c r="C971" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="972" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38356,7 +38350,7 @@
         <v>1096</v>
       </c>
       <c r="C972" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="973" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38367,7 +38361,7 @@
         <v>1097</v>
       </c>
       <c r="C973" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
@@ -38433,7 +38427,7 @@
         <v>1107</v>
       </c>
       <c r="C979" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="980" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38444,7 +38438,7 @@
         <v>1108</v>
       </c>
       <c r="C980" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
@@ -38477,7 +38471,7 @@
         <v>1113</v>
       </c>
       <c r="C983" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="984" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38488,7 +38482,7 @@
         <v>1114</v>
       </c>
       <c r="C984" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="985" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -38499,7 +38493,7 @@
         <v>1115</v>
       </c>
       <c r="C985" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
   </sheetData>
